--- a/Project_Design/ERD,테이블정의서/1차 테이블정의서.xlsx
+++ b/Project_Design/ERD,테이블정의서/1차 테이블정의서.xlsx
@@ -546,7 +546,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="46">
+  <fonts count="56">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -711,16 +711,6 @@
     </font>
     <font>
       <sz val="10.0"/>
-      <name val="돋움"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
       <name val="나눔바른고딕"/>
       <color rgb="FF000000"/>
     </font>
@@ -732,7 +722,7 @@
     <font>
       <sz val="18.0"/>
       <name val="HY견고딕"/>
-      <color/>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -746,12 +736,6 @@
       <color theme="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="1"/>
-    </font>
-    <font>
       <sz val="12.0"/>
       <name val="나눔바른고딕"/>
       <color theme="1"/>
@@ -792,6 +776,71 @@
     </font>
     <font>
       <sz val="12.0"/>
+      <name val="배달의민족 주아"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="16.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="16.0"/>
+      <name val="배달의민족 주아"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="16.0"/>
+      <name val="HY견고딕"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="16.0"/>
+      <name val="배달의민족 주아"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="16.0"/>
+      <name val="배달의민족 주아"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="14.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="14.0"/>
+      <name val="배달의민족 주아"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="14.0"/>
+      <name val="HY견고딕"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="14.0"/>
+      <name val="배달의민족 주아"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="배달의민족 주아"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="배달의민족 주아"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="배달의민족 주아"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
       <name val="배달의민족 주아"/>
       <color rgb="FF000000"/>
     </font>
@@ -1011,13 +1060,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="18">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1032,7 +1080,6 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1041,7 +1088,6 @@
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1050,7 +1096,6 @@
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1059,7 +1104,6 @@
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1074,7 +1118,6 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1089,7 +1132,6 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -1104,7 +1146,6 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1113,7 +1154,6 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1124,7 +1164,6 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1144,16 +1183,9 @@
       <left/>
       <right/>
       <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1173,21 +1205,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -1195,7 +1212,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1206,7 +1222,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1219,7 +1234,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1234,7 +1248,6 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1247,7 +1260,6 @@
         <color theme="1"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -1399,7 +1411,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1415,10 +1427,7 @@
     <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1451,271 +1460,439 @@
     <xf numFmtId="0" fontId="30" fillId="33" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="33" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="33" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="33" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="33" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="33" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="33" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="33" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="35" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="33" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="33" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="33" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="33" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="35" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="33" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="33" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="33" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="33" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="33" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="33" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="33" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="33" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="33" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2038,8 +2215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="90" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView topLeftCell="A76" tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -2052,2252 +2229,2323 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="54.000000" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50"/>
-    </row>
-    <row r="3" spans="1:9" s="94" customFormat="1" ht="24.750000" customHeight="1">
-      <c r="A3" s="95" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47"/>
+    </row>
+    <row r="3" spans="1:9" s="91" customFormat="1" ht="24.750000" customHeight="1">
+      <c r="A3" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="101" t="s">
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="150" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-    </row>
-    <row r="4" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A4" s="96" t="s">
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+    </row>
+    <row r="4" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A4" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="96" t="s">
+      <c r="D4" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="96" t="s">
+      <c r="E4" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="96" t="s">
+      <c r="F4" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="105" t="s">
+      <c r="G4" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="105" t="s">
+      <c r="H4" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="105" t="s">
+      <c r="I4" s="152" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A5" s="97" t="s">
+    <row r="5" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A5" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="97" t="s">
+      <c r="C5" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A6" s="97" t="s">
+      <c r="E5" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A6" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="153" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="97" t="s">
+      <c r="C6" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A7" s="97" t="s">
+      <c r="D6" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A7" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="97" t="s">
+      <c r="C7" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="102" t="s">
+      <c r="D7" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="154" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A8" s="97" t="s">
+      <c r="I7" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A8" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="97" t="s">
+      <c r="C8" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A9" s="97" t="s">
+      <c r="D8" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A9" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="97" t="s">
+      <c r="C9" s="153" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A10" s="98"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-    </row>
-    <row r="11" spans="1:9" s="94" customFormat="1" ht="27.400000" customHeight="1">
-      <c r="A11" s="95" t="s">
+      <c r="D9" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A10" s="155"/>
+      <c r="B10" s="155"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="156"/>
+    </row>
+    <row r="11" spans="1:9" s="91" customFormat="1" ht="27.400000" customHeight="1">
+      <c r="A11" s="149" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="101" t="s">
+      <c r="B11" s="149"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-    </row>
-    <row r="12" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A12" s="96" t="s">
+      <c r="E11" s="150"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="149"/>
+    </row>
+    <row r="12" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A12" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="96" t="s">
+      <c r="B12" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="96" t="s">
+      <c r="C12" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="96" t="s">
+      <c r="D12" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="96" t="s">
+      <c r="E12" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="96" t="s">
+      <c r="F12" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="105" t="s">
+      <c r="G12" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="105" t="s">
+      <c r="H12" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="105" t="s">
+      <c r="I12" s="152" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A13" s="97" t="s">
+    <row r="13" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A13" s="153" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="97" t="s">
+      <c r="C13" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="102" t="s">
+      <c r="D13" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="102" t="s">
+      <c r="E13" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A14" s="97" t="s">
+      <c r="F13" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A14" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="97" t="s">
+      <c r="B14" s="153" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="97" t="s">
+      <c r="C14" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A15" s="97" t="s">
+      <c r="D14" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A15" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="97" t="s">
+      <c r="B15" s="153" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="97" t="s">
+      <c r="C15" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A16" s="97" t="s">
+      <c r="D15" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A16" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="97" t="s">
+      <c r="B16" s="153" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="97" t="s">
+      <c r="C16" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" s="102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A17" s="97" t="s">
+      <c r="D16" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A17" s="153" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="97" t="s">
+      <c r="B17" s="153" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="97" t="s">
+      <c r="C17" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A18" s="97" t="s">
+      <c r="D17" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A18" s="153" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="97" t="s">
+      <c r="B18" s="153" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="97" t="s">
+      <c r="C18" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" s="102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A19" s="97" t="s">
+      <c r="D18" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A19" s="153" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="97" t="s">
+      <c r="B19" s="153" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="97" t="s">
+      <c r="C19" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A20" s="97" t="s">
+      <c r="D19" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A20" s="153" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="97" t="s">
+      <c r="B20" s="153" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="97" t="s">
+      <c r="C20" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" s="102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A21" s="97" t="s">
+      <c r="D20" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A21" s="153" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="97" t="s">
+      <c r="B21" s="153" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="97" t="s">
+      <c r="C21" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" s="102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A22" s="97" t="s">
+      <c r="D21" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A22" s="153" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="97" t="s">
+      <c r="B22" s="153" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="97" t="s">
+      <c r="C22" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I22" s="102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A23" s="97" t="s">
+      <c r="D22" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A23" s="153" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="97" t="s">
+      <c r="B23" s="153" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="97" t="s">
+      <c r="C23" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I23" s="102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A24" s="97" t="s">
+      <c r="D23" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A24" s="153" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="97" t="s">
+      <c r="B24" s="153" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="97" t="s">
+      <c r="C24" s="153" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I24" s="102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" s="94" customFormat="1" ht="14.400000"/>
-    <row r="26" spans="1:9" s="94" customFormat="1" ht="29.150000" customHeight="1">
-      <c r="A26" s="95" t="s">
+      <c r="D24" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A25" s="156"/>
+      <c r="B25" s="156"/>
+      <c r="C25" s="156"/>
+      <c r="D25" s="156"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="156"/>
+      <c r="H25" s="156"/>
+      <c r="I25" s="156"/>
+    </row>
+    <row r="26" spans="1:9" s="91" customFormat="1" ht="29.150000" customHeight="1">
+      <c r="A26" s="149" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="95"/>
-      <c r="C26" s="95"/>
-      <c r="D26" s="101" t="s">
+      <c r="B26" s="149"/>
+      <c r="C26" s="149"/>
+      <c r="D26" s="150" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="101"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="95"/>
-      <c r="I26" s="95"/>
-    </row>
-    <row r="27" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A27" s="96" t="s">
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+    </row>
+    <row r="27" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A27" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="96" t="s">
+      <c r="B27" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="96" t="s">
+      <c r="C27" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="96" t="s">
+      <c r="D27" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="96" t="s">
+      <c r="E27" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="96" t="s">
+      <c r="F27" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="105" t="s">
+      <c r="G27" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="H27" s="105" t="s">
+      <c r="H27" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="I27" s="105" t="s">
+      <c r="I27" s="152" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A28" s="99" t="s">
+    <row r="28" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A28" s="157" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="99" t="s">
+      <c r="B28" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="99" t="s">
+      <c r="C28" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="103" t="s">
+      <c r="D28" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="103" t="s">
+      <c r="E28" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="H28" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I28" s="103" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A29" s="99" t="s">
+      <c r="F28" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="158" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A29" s="157" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="99" t="s">
+      <c r="B29" s="157" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="99" t="s">
+      <c r="C29" s="157" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I29" s="103" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A30" s="99" t="s">
+      <c r="D29" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="158" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A30" s="157" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="99" t="s">
+      <c r="B30" s="157" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="99" t="s">
+      <c r="C30" s="157" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="H30" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I30" s="103" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A31" s="99" t="s">
+      <c r="D30" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" s="158" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A31" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="99" t="s">
+      <c r="B31" s="157" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="99" t="s">
+      <c r="C31" s="157" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="H31" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I31" s="103" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A32" s="99" t="s">
+      <c r="D31" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" s="158" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A32" s="157" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="99" t="s">
+      <c r="B32" s="157" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="99" t="s">
+      <c r="C32" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="G32" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="H32" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I32" s="103" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A33" s="99" t="s">
+      <c r="D32" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="158" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A33" s="157" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="99" t="s">
+      <c r="B33" s="157" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="99" t="s">
+      <c r="C33" s="157" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="H33" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I33" s="103" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" s="94" customFormat="1" ht="14.400000"/>
-    <row r="35" spans="1:9" s="94" customFormat="1" ht="36.850000" customHeight="1">
-      <c r="A35" s="95" t="s">
+      <c r="D33" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" s="158" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A34" s="156"/>
+      <c r="B34" s="156"/>
+      <c r="C34" s="156"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="156"/>
+      <c r="G34" s="156"/>
+      <c r="H34" s="156"/>
+      <c r="I34" s="156"/>
+    </row>
+    <row r="35" spans="1:9" s="91" customFormat="1" ht="36.850000" customHeight="1">
+      <c r="A35" s="149" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="95"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="101" t="s">
+      <c r="B35" s="149"/>
+      <c r="C35" s="149"/>
+      <c r="D35" s="150" t="s">
         <v>75</v>
       </c>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
-    </row>
-    <row r="36" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A36" s="96" t="s">
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+    </row>
+    <row r="36" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A36" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="96" t="s">
+      <c r="B36" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="96" t="s">
+      <c r="C36" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="96" t="s">
+      <c r="D36" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="96" t="s">
+      <c r="E36" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="F36" s="96" t="s">
+      <c r="F36" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="105" t="s">
+      <c r="G36" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="H36" s="105" t="s">
+      <c r="H36" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="I36" s="105" t="s">
+      <c r="I36" s="152" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A37" s="99" t="s">
+    <row r="37" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A37" s="157" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="99" t="s">
+      <c r="B37" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="99" t="s">
+      <c r="C37" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="103" t="s">
+      <c r="D37" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="103" t="s">
+      <c r="E37" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="F37" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="G37" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="H37" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I37" s="103" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A38" s="99" t="s">
+      <c r="F37" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" s="158" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A38" s="157" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="99" t="s">
+      <c r="B38" s="157" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="99" t="s">
+      <c r="C38" s="157" t="s">
         <v>68</v>
       </c>
-      <c r="D38" s="103" t="s">
+      <c r="D38" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="F38" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="G38" s="103" t="s">
+      <c r="E38" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="H38" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I38" s="103" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A39" s="99" t="s">
+      <c r="H38" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" s="158" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A39" s="157" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="99" t="s">
+      <c r="B39" s="157" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="99" t="s">
+      <c r="C39" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="E39" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="F39" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="G39" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="H39" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I39" s="103" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A40" s="99" t="s">
+      <c r="D39" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I39" s="158" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A40" s="157" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="99" t="s">
+      <c r="B40" s="157" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="99" t="s">
+      <c r="C40" s="157" t="s">
         <v>81</v>
       </c>
-      <c r="D40" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="F40" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="G40" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="H40" s="103" t="s">
+      <c r="D40" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" s="158" t="s">
         <v>82</v>
       </c>
-      <c r="I40" s="103" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A41" s="99" t="s">
+      <c r="I40" s="158" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A41" s="157" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="99" t="s">
+      <c r="B41" s="157" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="99" t="s">
+      <c r="C41" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="E41" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="F41" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="G41" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="H41" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I41" s="103" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A42" s="94"/>
-      <c r="B42" s="94"/>
-      <c r="C42" s="94"/>
-      <c r="D42" s="94"/>
-      <c r="E42" s="94"/>
-      <c r="F42" s="94"/>
-      <c r="G42" s="94"/>
-      <c r="H42" s="94"/>
-      <c r="I42" s="94"/>
-    </row>
-    <row r="43" spans="1:9" s="94" customFormat="1" ht="36.850000" customHeight="1">
-      <c r="A43" s="95" t="s">
+      <c r="D41" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I41" s="158" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A42" s="156"/>
+      <c r="B42" s="156"/>
+      <c r="C42" s="156"/>
+      <c r="D42" s="156"/>
+      <c r="E42" s="156"/>
+      <c r="F42" s="156"/>
+      <c r="G42" s="156"/>
+      <c r="H42" s="156"/>
+      <c r="I42" s="156"/>
+    </row>
+    <row r="43" spans="1:9" s="91" customFormat="1" ht="36.850000" customHeight="1">
+      <c r="A43" s="149" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="95"/>
-      <c r="C43" s="95"/>
-      <c r="D43" s="101" t="s">
+      <c r="B43" s="149"/>
+      <c r="C43" s="149"/>
+      <c r="D43" s="150" t="s">
         <v>90</v>
       </c>
-      <c r="E43" s="101"/>
-      <c r="F43" s="101"/>
-      <c r="G43" s="95"/>
-      <c r="H43" s="95"/>
-      <c r="I43" s="95"/>
-    </row>
-    <row r="44" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A44" s="96" t="s">
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+    </row>
+    <row r="44" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A44" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="96" t="s">
+      <c r="B44" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="96" t="s">
+      <c r="C44" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="D44" s="96" t="s">
+      <c r="D44" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="96" t="s">
+      <c r="E44" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="F44" s="96" t="s">
+      <c r="F44" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="G44" s="105" t="s">
+      <c r="G44" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="H44" s="105" t="s">
+      <c r="H44" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="I44" s="105" t="s">
+      <c r="I44" s="152" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A45" s="99" t="s">
+    <row r="45" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A45" s="157" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="99" t="s">
+      <c r="B45" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="99" t="s">
+      <c r="C45" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="103" t="s">
+      <c r="D45" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="E45" s="103" t="s">
+      <c r="E45" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="F45" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="G45" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="H45" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I45" s="103" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A46" s="99" t="s">
+      <c r="F45" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G45" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I45" s="158" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A46" s="157" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="99" t="s">
+      <c r="B46" s="157" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="99" t="s">
+      <c r="C46" s="157" t="s">
         <v>68</v>
       </c>
-      <c r="D46" s="103" t="s">
+      <c r="D46" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="E46" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="F46" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="G46" s="103" t="s">
+      <c r="E46" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G46" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="H46" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I46" s="103" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A47" s="99" t="s">
+      <c r="H46" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I46" s="158" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A47" s="157" t="s">
         <v>93</v>
       </c>
-      <c r="B47" s="99" t="s">
+      <c r="B47" s="157" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="99" t="s">
+      <c r="C47" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="E47" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="F47" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="G47" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="H47" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I47" s="103" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A48" s="99" t="s">
+      <c r="D47" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I47" s="158" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A48" s="157" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="99" t="s">
+      <c r="B48" s="157" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="99" t="s">
+      <c r="C48" s="157" t="s">
         <v>81</v>
       </c>
-      <c r="D48" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="E48" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="F48" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="G48" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="H48" s="103" t="s">
+      <c r="D48" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" s="158" t="s">
         <v>82</v>
       </c>
-      <c r="I48" s="103" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A49" s="99" t="s">
+      <c r="I48" s="158" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A49" s="157" t="s">
         <v>98</v>
       </c>
-      <c r="B49" s="99" t="s">
+      <c r="B49" s="157" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="99" t="s">
+      <c r="C49" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="D49" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="E49" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="F49" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="G49" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="H49" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I49" s="103" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" s="94" customFormat="1" ht="14.400000"/>
-    <row r="51" spans="1:9" s="94" customFormat="1" ht="36.850000" customHeight="1">
-      <c r="A51" s="95" t="s">
+      <c r="D49" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="H49" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I49" s="158" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A50" s="156"/>
+      <c r="B50" s="156"/>
+      <c r="C50" s="156"/>
+      <c r="D50" s="156"/>
+      <c r="E50" s="156"/>
+      <c r="F50" s="156"/>
+      <c r="G50" s="156"/>
+      <c r="H50" s="156"/>
+      <c r="I50" s="156"/>
+    </row>
+    <row r="51" spans="1:9" s="91" customFormat="1" ht="36.850000" customHeight="1">
+      <c r="A51" s="149" t="s">
         <v>99</v>
       </c>
-      <c r="B51" s="95"/>
-      <c r="C51" s="95"/>
-      <c r="D51" s="101" t="s">
+      <c r="B51" s="149"/>
+      <c r="C51" s="149"/>
+      <c r="D51" s="150" t="s">
         <v>100</v>
       </c>
-      <c r="E51" s="101"/>
-      <c r="F51" s="101"/>
-      <c r="G51" s="95"/>
-      <c r="H51" s="95"/>
-      <c r="I51" s="95"/>
-    </row>
-    <row r="52" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A52" s="96" t="s">
+      <c r="E51" s="150"/>
+      <c r="F51" s="150"/>
+      <c r="G51" s="149"/>
+      <c r="H51" s="149"/>
+      <c r="I51" s="149"/>
+    </row>
+    <row r="52" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A52" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="96" t="s">
+      <c r="B52" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="96" t="s">
+      <c r="C52" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="96" t="s">
+      <c r="D52" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="96" t="s">
+      <c r="E52" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="96" t="s">
+      <c r="F52" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="G52" s="105" t="s">
+      <c r="G52" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="H52" s="105" t="s">
+      <c r="H52" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="I52" s="105" t="s">
+      <c r="I52" s="152" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A53" s="100" t="s">
+    <row r="53" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A53" s="159" t="s">
         <v>102</v>
       </c>
-      <c r="B53" s="100" t="s">
+      <c r="B53" s="159" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="100" t="s">
+      <c r="C53" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="D53" s="104" t="s">
+      <c r="D53" s="160" t="s">
         <v>27</v>
       </c>
-      <c r="E53" s="104" t="s">
+      <c r="E53" s="160" t="s">
         <v>27</v>
       </c>
-      <c r="F53" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="G53" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="H53" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I53" s="104" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A54" s="97" t="s">
+      <c r="F53" s="160" t="s">
+        <v>29</v>
+      </c>
+      <c r="G53" s="160" t="s">
+        <v>29</v>
+      </c>
+      <c r="H53" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I53" s="160" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A54" s="153" t="s">
         <v>103</v>
       </c>
-      <c r="B54" s="97" t="s">
+      <c r="B54" s="153" t="s">
         <v>111</v>
       </c>
-      <c r="C54" s="97" t="s">
+      <c r="C54" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="102" t="s">
+      <c r="D54" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="E54" s="102" t="s">
+      <c r="E54" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="F54" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G54" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="H54" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I54" s="102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A55" s="97" t="s">
+      <c r="F54" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G54" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H54" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I54" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A55" s="153" t="s">
         <v>101</v>
       </c>
-      <c r="B55" s="97" t="s">
+      <c r="B55" s="153" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="97" t="s">
+      <c r="C55" s="153" t="s">
         <v>68</v>
       </c>
-      <c r="D55" s="102" t="s">
+      <c r="D55" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="E55" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="F55" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G55" s="102" t="s">
+      <c r="E55" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="H55" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I55" s="102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A56" s="97" t="s">
+      <c r="H55" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I55" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A56" s="153" t="s">
         <v>104</v>
       </c>
-      <c r="B56" s="97" t="s">
+      <c r="B56" s="153" t="s">
         <v>113</v>
       </c>
-      <c r="C56" s="97" t="s">
+      <c r="C56" s="153" t="s">
         <v>108</v>
       </c>
-      <c r="D56" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="E56" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="F56" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G56" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="H56" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I56" s="102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A57" s="97" t="s">
+      <c r="D56" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G56" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H56" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I56" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A57" s="153" t="s">
         <v>105</v>
       </c>
-      <c r="B57" s="97" t="s">
+      <c r="B57" s="153" t="s">
         <v>114</v>
       </c>
-      <c r="C57" s="97" t="s">
+      <c r="C57" s="153" t="s">
         <v>108</v>
       </c>
-      <c r="D57" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="E57" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="F57" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G57" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="H57" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I57" s="102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A58" s="97" t="s">
+      <c r="D57" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H57" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I57" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A58" s="153" t="s">
         <v>106</v>
       </c>
-      <c r="B58" s="97" t="s">
+      <c r="B58" s="153" t="s">
         <v>115</v>
       </c>
-      <c r="C58" s="97" t="s">
+      <c r="C58" s="153" t="s">
         <v>109</v>
       </c>
-      <c r="D58" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="E58" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="F58" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G58" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="H58" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I58" s="102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A59" s="97" t="s">
+      <c r="D58" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G58" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H58" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I58" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A59" s="153" t="s">
         <v>107</v>
       </c>
-      <c r="B59" s="97" t="s">
+      <c r="B59" s="153" t="s">
         <v>116</v>
       </c>
-      <c r="C59" s="97" t="s">
+      <c r="C59" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="E59" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="F59" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G59" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="H59" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I59" s="102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" s="94" customFormat="1" ht="14.400000"/>
-    <row r="61" spans="1:9" s="94" customFormat="1" ht="32.550000" customHeight="1">
-      <c r="A61" s="95" t="s">
+      <c r="D59" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F59" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G59" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H59" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I59" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A60" s="156"/>
+      <c r="B60" s="156"/>
+      <c r="C60" s="156"/>
+      <c r="D60" s="156"/>
+      <c r="E60" s="156"/>
+      <c r="F60" s="156"/>
+      <c r="G60" s="156"/>
+      <c r="H60" s="156"/>
+      <c r="I60" s="156"/>
+    </row>
+    <row r="61" spans="1:9" s="91" customFormat="1" ht="32.550000" customHeight="1">
+      <c r="A61" s="149" t="s">
         <v>117</v>
       </c>
-      <c r="B61" s="95"/>
-      <c r="C61" s="95"/>
-      <c r="D61" s="101" t="s">
+      <c r="B61" s="149"/>
+      <c r="C61" s="149"/>
+      <c r="D61" s="150" t="s">
         <v>118</v>
       </c>
-      <c r="E61" s="101"/>
-      <c r="F61" s="101"/>
-      <c r="G61" s="95"/>
-      <c r="H61" s="95"/>
-      <c r="I61" s="95"/>
-    </row>
-    <row r="62" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A62" s="96" t="s">
+      <c r="E61" s="150"/>
+      <c r="F61" s="150"/>
+      <c r="G61" s="149"/>
+      <c r="H61" s="149"/>
+      <c r="I61" s="149"/>
+    </row>
+    <row r="62" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A62" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="96" t="s">
+      <c r="B62" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="96" t="s">
+      <c r="C62" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="D62" s="96" t="s">
+      <c r="D62" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="96" t="s">
+      <c r="E62" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="F62" s="96" t="s">
+      <c r="F62" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="G62" s="105" t="s">
+      <c r="G62" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="H62" s="105" t="s">
+      <c r="H62" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="I62" s="105" t="s">
+      <c r="I62" s="152" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A63" s="100" t="s">
+    <row r="63" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A63" s="159" t="s">
         <v>119</v>
       </c>
-      <c r="B63" s="100" t="s">
+      <c r="B63" s="159" t="s">
         <v>124</v>
       </c>
-      <c r="C63" s="100" t="s">
+      <c r="C63" s="159" t="s">
         <v>68</v>
       </c>
-      <c r="D63" s="102" t="s">
+      <c r="D63" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="E63" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="F63" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G63" s="102" t="s">
+      <c r="E63" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G63" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="H63" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I63" s="102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A64" s="97" t="s">
+      <c r="H63" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I63" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A64" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="B64" s="97" t="s">
+      <c r="B64" s="153" t="s">
         <v>125</v>
       </c>
-      <c r="C64" s="97" t="s">
+      <c r="C64" s="153" t="s">
         <v>68</v>
       </c>
-      <c r="D64" s="102" t="s">
+      <c r="D64" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="E64" s="102" t="s">
+      <c r="E64" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="F64" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G64" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="H64" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I64" s="102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A65" s="97" t="s">
+      <c r="F64" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H64" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I64" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A65" s="153" t="s">
         <v>121</v>
       </c>
-      <c r="B65" s="97" t="s">
+      <c r="B65" s="153" t="s">
         <v>110</v>
       </c>
-      <c r="C65" s="97" t="s">
+      <c r="C65" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="D65" s="102" t="s">
+      <c r="D65" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="E65" s="102" t="s">
+      <c r="E65" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="F65" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G65" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="H65" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I65" s="102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A66" s="97" t="s">
+      <c r="F65" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G65" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H65" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I65" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A66" s="153" t="s">
         <v>127</v>
       </c>
-      <c r="B66" s="97" t="s">
+      <c r="B66" s="153" t="s">
         <v>111</v>
       </c>
-      <c r="C66" s="97" t="s">
+      <c r="C66" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="D66" s="102" t="s">
+      <c r="D66" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="E66" s="102" t="s">
+      <c r="E66" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="F66" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G66" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="H66" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I66" s="102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A67" s="97" t="s">
+      <c r="F66" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G66" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H66" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I66" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A67" s="153" t="s">
         <v>122</v>
       </c>
-      <c r="B67" s="97" t="s">
+      <c r="B67" s="153" t="s">
         <v>128</v>
       </c>
-      <c r="C67" s="97" t="s">
+      <c r="C67" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="D67" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="E67" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="F67" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G67" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="H67" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I67" s="102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A68" s="97" t="s">
+      <c r="D67" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G67" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H67" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I67" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A68" s="153" t="s">
         <v>123</v>
       </c>
-      <c r="B68" s="97" t="s">
+      <c r="B68" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="C68" s="97" t="s">
+      <c r="C68" s="153" t="s">
         <v>81</v>
       </c>
-      <c r="D68" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="E68" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="F68" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G68" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="H68" s="102" t="s">
+      <c r="D68" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G68" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H68" s="154" t="s">
         <v>82</v>
       </c>
-      <c r="I68" s="102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="69" s="94" customFormat="1" ht="14.400000"/>
-    <row r="70" spans="1:9" s="94" customFormat="1" ht="29.150000" customHeight="1">
-      <c r="A70" s="95" t="s">
+      <c r="I68" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A69" s="156"/>
+      <c r="B69" s="156"/>
+      <c r="C69" s="156"/>
+      <c r="D69" s="156"/>
+      <c r="E69" s="156"/>
+      <c r="F69" s="156"/>
+      <c r="G69" s="156"/>
+      <c r="H69" s="156"/>
+      <c r="I69" s="156"/>
+    </row>
+    <row r="70" spans="1:9" s="91" customFormat="1" ht="29.150000" customHeight="1">
+      <c r="A70" s="149" t="s">
         <v>130</v>
       </c>
-      <c r="B70" s="95"/>
-      <c r="C70" s="95"/>
-      <c r="D70" s="101" t="s">
+      <c r="B70" s="149"/>
+      <c r="C70" s="149"/>
+      <c r="D70" s="150" t="s">
         <v>131</v>
       </c>
-      <c r="E70" s="101"/>
-      <c r="F70" s="101"/>
-      <c r="G70" s="95"/>
-      <c r="H70" s="95"/>
-      <c r="I70" s="95"/>
-    </row>
-    <row r="71" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A71" s="96" t="s">
+      <c r="E70" s="150"/>
+      <c r="F70" s="150"/>
+      <c r="G70" s="149"/>
+      <c r="H70" s="149"/>
+      <c r="I70" s="149"/>
+    </row>
+    <row r="71" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A71" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="96" t="s">
+      <c r="B71" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="96" t="s">
+      <c r="C71" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="D71" s="96" t="s">
+      <c r="D71" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="E71" s="96" t="s">
+      <c r="E71" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="F71" s="96" t="s">
+      <c r="F71" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="G71" s="105" t="s">
+      <c r="G71" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="H71" s="105" t="s">
+      <c r="H71" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="I71" s="105" t="s">
+      <c r="I71" s="152" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A72" s="99" t="s">
+    <row r="72" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A72" s="157" t="s">
         <v>132</v>
       </c>
-      <c r="B72" s="99" t="s">
+      <c r="B72" s="157" t="s">
         <v>136</v>
       </c>
-      <c r="C72" s="99" t="s">
+      <c r="C72" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="D72" s="103" t="s">
+      <c r="D72" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="E72" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="F72" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="G72" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="H72" s="103" t="s">
-        <v>30</v>
-      </c>
-      <c r="I72" s="103" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A73" s="99" t="s">
+      <c r="E72" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G72" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="H72" s="158" t="s">
+        <v>30</v>
+      </c>
+      <c r="I72" s="158" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A73" s="157" t="s">
         <v>133</v>
       </c>
-      <c r="B73" s="99" t="s">
+      <c r="B73" s="157" t="s">
         <v>137</v>
       </c>
-      <c r="C73" s="99" t="s">
+      <c r="C73" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="D73" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="E73" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="F73" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="G73" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="H73" s="103" t="s">
-        <v>30</v>
-      </c>
-      <c r="I73" s="103" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A74" s="99" t="s">
+      <c r="D73" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="E73" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G73" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="H73" s="158" t="s">
+        <v>30</v>
+      </c>
+      <c r="I73" s="158" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A74" s="157" t="s">
         <v>134</v>
       </c>
-      <c r="B74" s="99" t="s">
+      <c r="B74" s="157" t="s">
         <v>138</v>
       </c>
-      <c r="C74" s="99" t="s">
+      <c r="C74" s="157" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="E74" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="F74" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="G74" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="H74" s="103" t="s">
-        <v>30</v>
-      </c>
-      <c r="I74" s="103" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A75" s="99" t="s">
+      <c r="D74" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="E74" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="F74" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G74" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="H74" s="158" t="s">
+        <v>30</v>
+      </c>
+      <c r="I74" s="158" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A75" s="157" t="s">
         <v>135</v>
       </c>
-      <c r="B75" s="99" t="s">
+      <c r="B75" s="157" t="s">
         <v>139</v>
       </c>
-      <c r="C75" s="99" t="s">
+      <c r="C75" s="157" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="E75" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="F75" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="G75" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="H75" s="103" t="s">
-        <v>30</v>
-      </c>
-      <c r="I75" s="103" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="76" s="94" customFormat="1" ht="14.400000"/>
-    <row r="77" spans="1:9" s="94" customFormat="1" ht="36.850000" customHeight="1">
-      <c r="A77" s="95" t="s">
+      <c r="D75" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="E75" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G75" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="H75" s="158" t="s">
+        <v>30</v>
+      </c>
+      <c r="I75" s="158" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A76" s="156"/>
+      <c r="B76" s="156"/>
+      <c r="C76" s="156"/>
+      <c r="D76" s="156"/>
+      <c r="E76" s="156"/>
+      <c r="F76" s="156"/>
+      <c r="G76" s="156"/>
+      <c r="H76" s="156"/>
+      <c r="I76" s="156"/>
+    </row>
+    <row r="77" spans="1:9" s="91" customFormat="1" ht="36.850000" customHeight="1">
+      <c r="A77" s="149" t="s">
         <v>140</v>
       </c>
-      <c r="B77" s="95"/>
-      <c r="C77" s="95"/>
-      <c r="D77" s="101" t="s">
+      <c r="B77" s="149"/>
+      <c r="C77" s="149"/>
+      <c r="D77" s="150" t="s">
         <v>141</v>
       </c>
-      <c r="E77" s="101"/>
-      <c r="F77" s="101"/>
-      <c r="G77" s="95"/>
-      <c r="H77" s="95"/>
-      <c r="I77" s="95"/>
-    </row>
-    <row r="78" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A78" s="96" t="s">
+      <c r="E77" s="150"/>
+      <c r="F77" s="150"/>
+      <c r="G77" s="149"/>
+      <c r="H77" s="149"/>
+      <c r="I77" s="149"/>
+    </row>
+    <row r="78" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A78" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B78" s="96" t="s">
+      <c r="B78" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="C78" s="96" t="s">
+      <c r="C78" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="D78" s="96" t="s">
+      <c r="D78" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="E78" s="96" t="s">
+      <c r="E78" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="F78" s="96" t="s">
+      <c r="F78" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="G78" s="105" t="s">
+      <c r="G78" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="H78" s="105" t="s">
+      <c r="H78" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="I78" s="105" t="s">
+      <c r="I78" s="152" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A79" s="97" t="s">
+    <row r="79" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A79" s="153" t="s">
         <v>142</v>
       </c>
-      <c r="B79" s="97" t="s">
+      <c r="B79" s="153" t="s">
         <v>154</v>
       </c>
-      <c r="C79" s="97" t="s">
+      <c r="C79" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="D79" s="102" t="s">
+      <c r="D79" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="E79" s="102" t="s">
+      <c r="E79" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="F79" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G79" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="H79" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I79" s="102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A80" s="97" t="s">
+      <c r="F79" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G79" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H79" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I79" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A80" s="153" t="s">
         <v>143</v>
       </c>
-      <c r="B80" s="97" t="s">
+      <c r="B80" s="153" t="s">
         <v>155</v>
       </c>
-      <c r="C80" s="97" t="s">
+      <c r="C80" s="153" t="s">
         <v>151</v>
       </c>
-      <c r="D80" s="102" t="s">
+      <c r="D80" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="E80" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="F80" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G80" s="102" t="s">
+      <c r="E80" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F80" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G80" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I80" s="102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A81" s="97" t="s">
+      <c r="H80" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I80" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A81" s="153" t="s">
         <v>144</v>
       </c>
-      <c r="B81" s="97" t="s">
+      <c r="B81" s="153" t="s">
         <v>156</v>
       </c>
-      <c r="C81" s="97" t="s">
+      <c r="C81" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="D81" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="E81" s="102" t="s">
+      <c r="D81" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E81" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="F81" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G81" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="H81" s="102" t="s">
+      <c r="F81" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G81" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H81" s="154" t="s">
         <v>82</v>
       </c>
-      <c r="I81" s="102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A82" s="97" t="s">
+      <c r="I81" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A82" s="153" t="s">
         <v>145</v>
       </c>
-      <c r="B82" s="97" t="s">
+      <c r="B82" s="153" t="s">
         <v>158</v>
       </c>
-      <c r="C82" s="97" t="s">
+      <c r="C82" s="153" t="s">
         <v>152</v>
       </c>
-      <c r="D82" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="E82" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="F82" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G82" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="H82" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I82" s="102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A83" s="97" t="s">
+      <c r="D82" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E82" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F82" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G82" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H82" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I82" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A83" s="153" t="s">
         <v>146</v>
       </c>
-      <c r="B83" s="97" t="s">
+      <c r="B83" s="153" t="s">
         <v>159</v>
       </c>
-      <c r="C83" s="97" t="s">
+      <c r="C83" s="153" t="s">
         <v>81</v>
       </c>
-      <c r="D83" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="E83" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="F83" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G83" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="H83" s="102" t="s">
+      <c r="D83" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E83" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F83" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G83" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H83" s="154" t="s">
         <v>82</v>
       </c>
-      <c r="I83" s="102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A84" s="97" t="s">
+      <c r="I83" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A84" s="153" t="s">
         <v>147</v>
       </c>
-      <c r="B84" s="97" t="s">
+      <c r="B84" s="153" t="s">
         <v>160</v>
       </c>
-      <c r="C84" s="97" t="s">
+      <c r="C84" s="153" t="s">
         <v>81</v>
       </c>
-      <c r="D84" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="E84" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="F84" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G84" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="H84" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I84" s="102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A85" s="97" t="s">
+      <c r="D84" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E84" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G84" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H84" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I84" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A85" s="153" t="s">
         <v>148</v>
       </c>
-      <c r="B85" s="97" t="s">
+      <c r="B85" s="153" t="s">
         <v>161</v>
       </c>
-      <c r="C85" s="97" t="s">
+      <c r="C85" s="153" t="s">
         <v>153</v>
       </c>
-      <c r="D85" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="E85" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="F85" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G85" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="H85" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I85" s="102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A86" s="97" t="s">
+      <c r="D85" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E85" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F85" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G85" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H85" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I85" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A86" s="153" t="s">
         <v>149</v>
       </c>
-      <c r="B86" s="97" t="s">
+      <c r="B86" s="153" t="s">
         <v>162</v>
       </c>
-      <c r="C86" s="97" t="s">
+      <c r="C86" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="D86" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="E86" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="F86" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G86" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="H86" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I86" s="102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A87" s="97" t="s">
+      <c r="D86" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E86" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F86" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G86" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H86" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I86" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A87" s="153" t="s">
         <v>150</v>
       </c>
-      <c r="B87" s="97" t="s">
+      <c r="B87" s="153" t="s">
         <v>163</v>
       </c>
-      <c r="C87" s="97" t="s">
+      <c r="C87" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="E87" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="F87" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G87" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="H87" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I87" s="102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="88" s="94" customFormat="1" ht="14.400000"/>
-    <row r="89" spans="1:9" s="94" customFormat="1" ht="30.850000" customHeight="1">
-      <c r="A89" s="95" t="s">
+      <c r="D87" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E87" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F87" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G87" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H87" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I87" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A88" s="156"/>
+      <c r="B88" s="156"/>
+      <c r="C88" s="156"/>
+      <c r="D88" s="156"/>
+      <c r="E88" s="156"/>
+      <c r="F88" s="156"/>
+      <c r="G88" s="156"/>
+      <c r="H88" s="156"/>
+      <c r="I88" s="156"/>
+    </row>
+    <row r="89" spans="1:9" s="91" customFormat="1" ht="30.850000" customHeight="1">
+      <c r="A89" s="149" t="s">
         <v>164</v>
       </c>
-      <c r="B89" s="95"/>
-      <c r="C89" s="95"/>
-      <c r="D89" s="101" t="s">
+      <c r="B89" s="149"/>
+      <c r="C89" s="149"/>
+      <c r="D89" s="150" t="s">
         <v>165</v>
       </c>
-      <c r="E89" s="101"/>
-      <c r="F89" s="101"/>
-      <c r="G89" s="95"/>
-      <c r="H89" s="95"/>
-      <c r="I89" s="95"/>
-    </row>
-    <row r="90" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A90" s="96" t="s">
+      <c r="E89" s="150"/>
+      <c r="F89" s="150"/>
+      <c r="G89" s="149"/>
+      <c r="H89" s="149"/>
+      <c r="I89" s="149"/>
+    </row>
+    <row r="90" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A90" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B90" s="96" t="s">
+      <c r="B90" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="C90" s="96" t="s">
+      <c r="C90" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="D90" s="96" t="s">
+      <c r="D90" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="E90" s="96" t="s">
+      <c r="E90" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="F90" s="96" t="s">
+      <c r="F90" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="G90" s="105" t="s">
+      <c r="G90" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="H90" s="105" t="s">
+      <c r="H90" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="I90" s="105" t="s">
+      <c r="I90" s="152" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A91" s="97" t="s">
+    <row r="91" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A91" s="153" t="s">
         <v>166</v>
       </c>
-      <c r="B91" s="97" t="s">
+      <c r="B91" s="153" t="s">
         <v>169</v>
       </c>
-      <c r="C91" s="97" t="s">
+      <c r="C91" s="153" t="s">
         <v>109</v>
       </c>
-      <c r="D91" s="102" t="s">
+      <c r="D91" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="E91" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="F91" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G91" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="H91" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I91" s="102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" s="94" customFormat="1" ht="14.400000">
-      <c r="A92" s="97" t="s">
+      <c r="E91" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F91" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G91" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H91" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I91" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A92" s="153" t="s">
         <v>167</v>
       </c>
-      <c r="B92" s="97" t="s">
+      <c r="B92" s="153" t="s">
         <v>170</v>
       </c>
-      <c r="C92" s="97" t="s">
+      <c r="C92" s="153" t="s">
         <v>168</v>
       </c>
-      <c r="D92" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="E92" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="F92" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G92" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="H92" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I92" s="102" t="s">
+      <c r="D92" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E92" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F92" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G92" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H92" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I92" s="154" t="s">
         <v>29</v>
       </c>
     </row>

--- a/Project_Design/ERD,테이블정의서/1차 테이블정의서.xlsx
+++ b/Project_Design/ERD,테이블정의서/1차 테이블정의서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.121.46349"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$92</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$103</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
   <si>
     <t xml:space="preserve">테이블 ID : </t>
   </si>
@@ -539,6 +539,39 @@
   </si>
   <si>
     <t>학교 부서 소개</t>
+  </si>
+  <si>
+    <t>테이블 ID : Alert_Table</t>
+  </si>
+  <si>
+    <t>알림 정보</t>
+  </si>
+  <si>
+    <t>Alert_ID</t>
+  </si>
+  <si>
+    <t>Alert_Count</t>
+  </si>
+  <si>
+    <t>Alert_Contents</t>
+  </si>
+  <si>
+    <t>Alert_Time</t>
+  </si>
+  <si>
+    <t>Alert_Check</t>
+  </si>
+  <si>
+    <t>알림 번호</t>
+  </si>
+  <si>
+    <t>알림 내용</t>
+  </si>
+  <si>
+    <t>알림 시간</t>
+  </si>
+  <si>
+    <t>알림 확인 여부</t>
   </si>
 </sst>
 </file>
@@ -2213,10 +2246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView topLeftCell="A53" tabSelected="1" view="pageBreakPreview" zoomScale="50" zoomScaleNormal="90" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="C91" sqref="C90:C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -4549,8 +4582,197 @@
         <v>29</v>
       </c>
     </row>
+    <row r="97" spans="1:9" ht="30.000000" customHeight="1">
+      <c r="A97" s="149" t="s">
+        <v>171</v>
+      </c>
+      <c r="B97" s="149"/>
+      <c r="C97" s="149"/>
+      <c r="D97" s="150" t="s">
+        <v>172</v>
+      </c>
+      <c r="E97" s="150"/>
+      <c r="F97" s="150"/>
+      <c r="G97" s="149"/>
+      <c r="H97" s="149"/>
+      <c r="I97" s="149"/>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="151" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" s="151" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" s="151" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98" s="151" t="s">
+        <v>4</v>
+      </c>
+      <c r="E98" s="151" t="s">
+        <v>5</v>
+      </c>
+      <c r="F98" s="151" t="s">
+        <v>6</v>
+      </c>
+      <c r="G98" s="152" t="s">
+        <v>9</v>
+      </c>
+      <c r="H98" s="152" t="s">
+        <v>28</v>
+      </c>
+      <c r="I98" s="152" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="153" t="s">
+        <v>173</v>
+      </c>
+      <c r="B99" s="153" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" s="153" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" s="154" t="s">
+        <v>27</v>
+      </c>
+      <c r="E99" s="154" t="s">
+        <v>27</v>
+      </c>
+      <c r="F99" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G99" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H99" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I99" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="153" t="s">
+        <v>174</v>
+      </c>
+      <c r="B100" s="153" t="s">
+        <v>178</v>
+      </c>
+      <c r="C100" s="153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" s="154" t="s">
+        <v>27</v>
+      </c>
+      <c r="E100" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F100" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G100" s="154" t="s">
+        <v>27</v>
+      </c>
+      <c r="H100" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I100" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="153" t="s">
+        <v>175</v>
+      </c>
+      <c r="B101" s="153" t="s">
+        <v>179</v>
+      </c>
+      <c r="C101" s="153" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E101" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F101" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G101" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H101" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I101" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="153" t="s">
+        <v>176</v>
+      </c>
+      <c r="B102" s="153" t="s">
+        <v>180</v>
+      </c>
+      <c r="C102" s="153" t="s">
+        <v>108</v>
+      </c>
+      <c r="D102" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E102" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F102" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G102" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H102" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I102" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="153" t="s">
+        <v>177</v>
+      </c>
+      <c r="B103" s="153" t="s">
+        <v>181</v>
+      </c>
+      <c r="C103" s="153" t="s">
+        <v>38</v>
+      </c>
+      <c r="D103" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E103" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F103" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G103" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H103" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I103" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="23">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:I3"/>
@@ -4572,10 +4794,16 @@
     <mergeCell ref="D77:I77"/>
     <mergeCell ref="A89:C89"/>
     <mergeCell ref="D89:I89"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="D97:I97"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="92" orientation="portrait"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="48" max="100" man="1"/>
+    <brk id="101" max="8" man="1"/>
+  </rowBreaks>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>

--- a/Project_Design/ERD,테이블정의서/1차 테이블정의서.xlsx
+++ b/Project_Design/ERD,테이블정의서/1차 테이블정의서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.121.46349"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$103</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$90</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <si>
     <t xml:space="preserve">테이블 ID : </t>
   </si>
@@ -572,6 +572,66 @@
   </si>
   <si>
     <t>알림 확인 여부</t>
+  </si>
+  <si>
+    <t>User_Char_Place</t>
+  </si>
+  <si>
+    <t>User_Char_LastUser</t>
+  </si>
+  <si>
+    <t>사용자가 방문한 위치 정보</t>
+  </si>
+  <si>
+    <t>사용자가 마지막에 있던 위치 정보</t>
+  </si>
+  <si>
+    <t>멘토 설명</t>
+  </si>
+  <si>
+    <t>멘토링 게시글 제목</t>
+  </si>
+  <si>
+    <t>멘토 게시글 번호</t>
+  </si>
+  <si>
+    <t>멘토 게시글 내용</t>
+  </si>
+  <si>
+    <t>멘토 게시글 제목</t>
+  </si>
+  <si>
+    <t>멘티 게시글 내용</t>
+  </si>
+  <si>
+    <t>멘티 게시글 제목</t>
+  </si>
+  <si>
+    <t>멘티 게시글 번호</t>
+  </si>
+  <si>
+    <t>Reservation_PostNumber</t>
+  </si>
+  <si>
+    <t>Reservation_ReservationNumber</t>
+  </si>
+  <si>
+    <t>예약이</t>
+  </si>
+  <si>
+    <t>예약번호</t>
+  </si>
+  <si>
+    <t>예약이 매칭된 게시글 번호</t>
+  </si>
+  <si>
+    <t>Reservation_IsMento_IsMenti</t>
+  </si>
+  <si>
+    <t>게시글 번호의 멘토테이블/멘티테이블 여부</t>
+  </si>
+  <si>
+    <t>ㅍ</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1294,6 +1354,64 @@
       </top>
       <bottom/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1444,7 +1562,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1926,6 +2044,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="33" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="33" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2246,10 +2388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" tabSelected="1" view="pageBreakPreview" zoomScale="50" zoomScaleNormal="90" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="C91" sqref="C90:C91"/>
+    <sheetView topLeftCell="A55" tabSelected="1" view="pageBreakPreview" zoomScale="140" zoomScaleNormal="90" zoomScaleSheetLayoutView="140" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -2476,12 +2618,12 @@
     </row>
     <row r="11" spans="1:9" s="91" customFormat="1" ht="27.400000" customHeight="1">
       <c r="A11" s="149" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B11" s="149"/>
       <c r="C11" s="149"/>
       <c r="D11" s="150" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="E11" s="150"/>
       <c r="F11" s="150"/>
@@ -2519,423 +2661,413 @@
       </c>
     </row>
     <row r="13" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A13" s="153" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="153" t="s">
+      <c r="A13" s="157" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="153" t="s">
+      <c r="C13" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="154" t="s">
+      <c r="D13" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="154" t="s">
+      <c r="E13" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="154" t="s">
+      <c r="F13" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="158" t="s">
         <v>29</v>
       </c>
       <c r="H13" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="154" t="s">
+      <c r="I13" s="158" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A14" s="153" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="153" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="153" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="154" t="s">
+      <c r="A14" s="157" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="157" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="158" t="s">
         <v>29</v>
       </c>
       <c r="H14" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="154" t="s">
+      <c r="I14" s="158" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A15" s="153" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="153" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="153" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="154" t="s">
+      <c r="A15" s="157" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="157" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="158" t="s">
         <v>29</v>
       </c>
       <c r="H15" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="154" t="s">
+      <c r="I15" s="158" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A16" s="153" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="153" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="153" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="154" t="s">
+      <c r="A16" s="157" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="157" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="158" t="s">
         <v>29</v>
       </c>
       <c r="H16" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="154" t="s">
+      <c r="I16" s="158" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A17" s="153" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="153" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="153" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="154" t="s">
+      <c r="A17" s="157" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="157" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="158" t="s">
         <v>29</v>
       </c>
       <c r="H17" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="154" t="s">
+      <c r="I17" s="158" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A18" s="153" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="153" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="153" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="154" t="s">
+      <c r="A18" s="157" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="157" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="158" t="s">
         <v>29</v>
       </c>
       <c r="H18" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="154" t="s">
+      <c r="I18" s="158" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A19" s="153" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="153" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="153" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="154" t="s">
+      <c r="A19" s="157" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19" s="157" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" s="157" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="158" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" s="158" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A20" s="153" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="153" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="153" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" s="154" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A21" s="153" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="153" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="153" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" s="154" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A22" s="153" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="153" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="153" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I22" s="154" t="s">
-        <v>29</v>
-      </c>
+      <c r="A20" s="157" t="s">
+        <v>183</v>
+      </c>
+      <c r="B20" s="157" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" s="157" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="158" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" s="158" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" s="91" customFormat="1" ht="12.000000" customHeight="1"/>
+    <row r="22" spans="1:9" s="91" customFormat="1" ht="29.000000" customHeight="1">
+      <c r="A22" s="149" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="149"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="150"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="149"/>
+      <c r="H22" s="149"/>
+      <c r="I22" s="149"/>
     </row>
     <row r="23" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A23" s="153" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="153" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="153" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I23" s="154" t="s">
-        <v>29</v>
+      <c r="A23" s="151" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="151" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="151" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="151" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="151" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="151" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="152" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="152" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="152" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A24" s="153" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="153" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="153" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="154" t="s">
+      <c r="A24" s="157" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="157" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="158" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="158" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="158" t="s">
         <v>29</v>
       </c>
       <c r="H24" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="I24" s="154" t="s">
+      <c r="I24" s="158" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A25" s="156"/>
-      <c r="B25" s="156"/>
-      <c r="C25" s="156"/>
-      <c r="D25" s="156"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="156"/>
-      <c r="H25" s="156"/>
-      <c r="I25" s="156"/>
-    </row>
-    <row r="26" spans="1:9" s="91" customFormat="1" ht="29.150000" customHeight="1">
-      <c r="A26" s="149" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="149"/>
-      <c r="C26" s="149"/>
-      <c r="D26" s="150" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
+      <c r="A25" s="157" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="157" t="s">
+        <v>188</v>
+      </c>
+      <c r="C25" s="157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="158" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="158" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="158" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A26" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="157" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="158" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="27" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A27" s="151" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="151" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="151" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="151" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="151" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="151" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" s="152" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" s="152" t="s">
-        <v>28</v>
-      </c>
-      <c r="I27" s="152" t="s">
-        <v>7</v>
+      <c r="A27" s="157" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="157" t="s">
+        <v>189</v>
+      </c>
+      <c r="C27" s="157" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="158" t="s">
+        <v>82</v>
+      </c>
+      <c r="I27" s="158" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="91" customFormat="1" ht="12.000000">
       <c r="A28" s="157" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="B28" s="157" t="s">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="C28" s="157" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="158" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E28" s="158" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F28" s="158" t="s">
         <v>29</v>
@@ -2951,107 +3083,75 @@
       </c>
     </row>
     <row r="29" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A29" s="157" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="157" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="157" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I29" s="158" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A30" s="157" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="157" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="157" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="H30" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I30" s="158" t="s">
-        <v>29</v>
-      </c>
+      <c r="A29" s="156"/>
+      <c r="B29" s="156"/>
+      <c r="C29" s="156"/>
+      <c r="D29" s="156"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="156"/>
+      <c r="I29" s="156"/>
+    </row>
+    <row r="30" spans="1:9" s="91" customFormat="1" ht="25.250000" customHeight="1">
+      <c r="A30" s="149" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="149"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="150" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
     </row>
     <row r="31" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A31" s="157" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="157" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="157" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="H31" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I31" s="158" t="s">
-        <v>29</v>
+      <c r="A31" s="151" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="151" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="151" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="151" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="151" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="151" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="152" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="152" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" s="152" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="91" customFormat="1" ht="12.000000">
       <c r="A32" s="157" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="B32" s="157" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="C32" s="157" t="s">
         <v>21</v>
       </c>
       <c r="D32" s="158" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E32" s="158" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F32" s="158" t="s">
         <v>29</v>
@@ -3068,16 +3168,16 @@
     </row>
     <row r="33" spans="1:9" s="91" customFormat="1" ht="12.000000">
       <c r="A33" s="157" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B33" s="157" t="s">
-        <v>73</v>
+        <v>193</v>
       </c>
       <c r="C33" s="157" t="s">
         <v>68</v>
       </c>
       <c r="D33" s="158" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E33" s="158" t="s">
         <v>29</v>
@@ -3086,7 +3186,7 @@
         <v>29</v>
       </c>
       <c r="G33" s="158" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H33" s="154" t="s">
         <v>30</v>
@@ -3096,495 +3196,527 @@
       </c>
     </row>
     <row r="34" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A34" s="156"/>
-      <c r="B34" s="156"/>
-      <c r="C34" s="156"/>
-      <c r="D34" s="156"/>
-      <c r="E34" s="156"/>
-      <c r="F34" s="156"/>
-      <c r="G34" s="156"/>
-      <c r="H34" s="156"/>
-      <c r="I34" s="156"/>
-    </row>
-    <row r="35" spans="1:9" s="91" customFormat="1" ht="36.850000" customHeight="1">
-      <c r="A35" s="149" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="149"/>
-      <c r="C35" s="149"/>
-      <c r="D35" s="150" t="s">
-        <v>75</v>
-      </c>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-    </row>
-    <row r="36" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A36" s="151" t="s">
+      <c r="A34" s="157" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="157" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" s="158" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A35" s="157" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="157" t="s">
+        <v>191</v>
+      </c>
+      <c r="C35" s="157" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="158" t="s">
+        <v>82</v>
+      </c>
+      <c r="I35" s="158" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="91" customFormat="1" ht="12.550000" customHeight="1">
+      <c r="A36" s="157" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="157" t="s">
+        <v>192</v>
+      </c>
+      <c r="C36" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" s="158" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A37" s="156"/>
+      <c r="B37" s="156"/>
+      <c r="C37" s="156"/>
+      <c r="D37" s="156"/>
+      <c r="E37" s="156"/>
+      <c r="F37" s="156"/>
+      <c r="G37" s="156"/>
+      <c r="H37" s="156"/>
+      <c r="I37" s="156"/>
+    </row>
+    <row r="38" spans="1:9" s="91" customFormat="1" ht="25.250000" customHeight="1">
+      <c r="A38" s="149" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="149"/>
+      <c r="C38" s="149"/>
+      <c r="D38" s="150" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+    </row>
+    <row r="39" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A39" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="151" t="s">
+      <c r="B39" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="151" t="s">
+      <c r="C39" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="151" t="s">
+      <c r="D39" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="151" t="s">
+      <c r="E39" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="F36" s="151" t="s">
+      <c r="F39" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="152" t="s">
+      <c r="G39" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="H36" s="152" t="s">
+      <c r="H39" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="I36" s="152" t="s">
+      <c r="I39" s="152" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A37" s="157" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="157" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="157" t="s">
+    <row r="40" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A40" s="159" t="s">
+        <v>194</v>
+      </c>
+      <c r="B40" s="159" t="s">
+        <v>198</v>
+      </c>
+      <c r="C40" s="159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="160" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="160" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="160" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" s="160" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40" s="160" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A41" s="159" t="s">
+        <v>195</v>
+      </c>
+      <c r="B41" s="159" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" s="159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="160" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="160" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="160" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="160" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I41" s="160" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A42" s="159" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="159" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="158" t="s">
+      <c r="D42" s="160" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="158" t="s">
+      <c r="E42" s="160" t="s">
         <v>27</v>
       </c>
-      <c r="F37" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="G37" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="H37" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I37" s="158" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A38" s="157" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" s="157" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" s="157" t="s">
+      <c r="F42" s="160" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" s="160" t="s">
+        <v>29</v>
+      </c>
+      <c r="H42" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I42" s="160" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A43" s="153" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="153" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="153" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="154" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="154" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G43" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H43" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I43" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A44" s="153" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" s="153" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="153" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H44" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I44" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A45" s="153" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" s="153" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="153" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G45" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I45" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A46" s="153" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="153" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="153" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G46" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H46" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I46" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A47" s="153" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" s="153" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="153" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I47" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A48" s="153" t="s">
+        <v>199</v>
+      </c>
+      <c r="B48" s="153" t="s">
+        <v>200</v>
+      </c>
+      <c r="C48" s="153" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I48" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A49" s="156"/>
+      <c r="B49" s="156"/>
+      <c r="C49" s="156"/>
+      <c r="D49" s="156"/>
+      <c r="E49" s="156"/>
+      <c r="F49" s="156"/>
+      <c r="G49" s="156"/>
+      <c r="H49" s="156"/>
+      <c r="I49" s="156"/>
+    </row>
+    <row r="50" spans="1:9" s="91" customFormat="1" ht="28.050000" customHeight="1">
+      <c r="A50" s="149" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="149"/>
+      <c r="C50" s="149"/>
+      <c r="D50" s="150" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50" s="150"/>
+      <c r="F50" s="150"/>
+      <c r="G50" s="149"/>
+      <c r="H50" s="149"/>
+      <c r="I50" s="149"/>
+    </row>
+    <row r="51" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A51" s="151" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="151" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="151" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="151" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="151" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="151" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="152" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="152" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" s="152" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A52" s="159" t="s">
+        <v>194</v>
+      </c>
+      <c r="B52" s="159" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" s="159" t="s">
         <v>68</v>
       </c>
-      <c r="D38" s="158" t="s">
+      <c r="D52" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="F38" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="G38" s="158" t="s">
+      <c r="E52" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="H38" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I38" s="158" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A39" s="157" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="157" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="157" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="E39" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="F39" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="G39" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="H39" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I39" s="158" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A40" s="157" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="157" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" s="157" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="F40" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="G40" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="H40" s="158" t="s">
-        <v>82</v>
-      </c>
-      <c r="I40" s="158" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A41" s="157" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="157" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="157" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="E41" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="F41" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="G41" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="H41" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I41" s="158" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A42" s="156"/>
-      <c r="B42" s="156"/>
-      <c r="C42" s="156"/>
-      <c r="D42" s="156"/>
-      <c r="E42" s="156"/>
-      <c r="F42" s="156"/>
-      <c r="G42" s="156"/>
-      <c r="H42" s="156"/>
-      <c r="I42" s="156"/>
-    </row>
-    <row r="43" spans="1:9" s="91" customFormat="1" ht="36.850000" customHeight="1">
-      <c r="A43" s="149" t="s">
-        <v>88</v>
-      </c>
-      <c r="B43" s="149"/>
-      <c r="C43" s="149"/>
-      <c r="D43" s="150" t="s">
-        <v>90</v>
-      </c>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-    </row>
-    <row r="44" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A44" s="151" t="s">
-        <v>1</v>
-      </c>
-      <c r="B44" s="151" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="151" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="151" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="151" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="151" t="s">
-        <v>6</v>
-      </c>
-      <c r="G44" s="152" t="s">
-        <v>9</v>
-      </c>
-      <c r="H44" s="152" t="s">
-        <v>28</v>
-      </c>
-      <c r="I44" s="152" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A45" s="157" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" s="157" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="157" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="158" t="s">
+      <c r="F52" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G52" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H52" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I52" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A53" s="153" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" s="153" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" s="153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="E45" s="158" t="s">
+      <c r="E53" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="F45" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="G45" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="H45" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I45" s="158" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A46" s="157" t="s">
-        <v>92</v>
-      </c>
-      <c r="B46" s="157" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" s="157" t="s">
-        <v>68</v>
-      </c>
-      <c r="D46" s="158" t="s">
+      <c r="F53" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G53" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="E46" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="F46" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="G46" s="158" t="s">
-        <v>27</v>
-      </c>
-      <c r="H46" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I46" s="158" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A47" s="157" t="s">
-        <v>93</v>
-      </c>
-      <c r="B47" s="157" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" s="157" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="E47" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="F47" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="G47" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="H47" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I47" s="158" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A48" s="157" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" s="157" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48" s="157" t="s">
-        <v>81</v>
-      </c>
-      <c r="D48" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="E48" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="F48" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="G48" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="H48" s="158" t="s">
-        <v>82</v>
-      </c>
-      <c r="I48" s="158" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A49" s="157" t="s">
-        <v>98</v>
-      </c>
-      <c r="B49" s="157" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49" s="157" t="s">
-        <v>21</v>
-      </c>
-      <c r="D49" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="E49" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="F49" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="G49" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="H49" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I49" s="158" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A50" s="156"/>
-      <c r="B50" s="156"/>
-      <c r="C50" s="156"/>
-      <c r="D50" s="156"/>
-      <c r="E50" s="156"/>
-      <c r="F50" s="156"/>
-      <c r="G50" s="156"/>
-      <c r="H50" s="156"/>
-      <c r="I50" s="156"/>
-    </row>
-    <row r="51" spans="1:9" s="91" customFormat="1" ht="36.850000" customHeight="1">
-      <c r="A51" s="149" t="s">
-        <v>99</v>
-      </c>
-      <c r="B51" s="149"/>
-      <c r="C51" s="149"/>
-      <c r="D51" s="150" t="s">
-        <v>100</v>
-      </c>
-      <c r="E51" s="150"/>
-      <c r="F51" s="150"/>
-      <c r="G51" s="149"/>
-      <c r="H51" s="149"/>
-      <c r="I51" s="149"/>
-    </row>
-    <row r="52" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A52" s="151" t="s">
-        <v>1</v>
-      </c>
-      <c r="B52" s="151" t="s">
-        <v>2</v>
-      </c>
-      <c r="C52" s="151" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" s="151" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="151" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="151" t="s">
-        <v>6</v>
-      </c>
-      <c r="G52" s="152" t="s">
-        <v>9</v>
-      </c>
-      <c r="H52" s="152" t="s">
-        <v>28</v>
-      </c>
-      <c r="I52" s="152" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A53" s="159" t="s">
-        <v>102</v>
-      </c>
-      <c r="B53" s="159" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="159" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="160" t="s">
-        <v>27</v>
-      </c>
-      <c r="E53" s="160" t="s">
-        <v>27</v>
-      </c>
-      <c r="F53" s="160" t="s">
-        <v>29</v>
-      </c>
-      <c r="G53" s="160" t="s">
-        <v>29</v>
-      </c>
       <c r="H53" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="I53" s="160" t="s">
+      <c r="I53" s="154" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="91" customFormat="1" ht="12.000000">
       <c r="A54" s="153" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="B54" s="153" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C54" s="153" t="s">
         <v>21</v>
@@ -3610,25 +3742,25 @@
     </row>
     <row r="55" spans="1:9" s="91" customFormat="1" ht="12.000000">
       <c r="A55" s="153" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="B55" s="153" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C55" s="153" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="D55" s="154" t="s">
         <v>27</v>
       </c>
       <c r="E55" s="154" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F55" s="154" t="s">
         <v>29</v>
       </c>
       <c r="G55" s="154" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H55" s="154" t="s">
         <v>30</v>
@@ -3639,13 +3771,13 @@
     </row>
     <row r="56" spans="1:9" s="91" customFormat="1" ht="12.000000">
       <c r="A56" s="153" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="B56" s="153" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="C56" s="153" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="D56" s="154" t="s">
         <v>29</v>
@@ -3668,13 +3800,13 @@
     </row>
     <row r="57" spans="1:9" s="91" customFormat="1" ht="12.000000">
       <c r="A57" s="153" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="B57" s="153" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="C57" s="153" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="D57" s="154" t="s">
         <v>29</v>
@@ -3689,563 +3821,563 @@
         <v>29</v>
       </c>
       <c r="H57" s="154" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="I57" s="154" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A58" s="153" t="s">
-        <v>106</v>
-      </c>
-      <c r="B58" s="153" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" s="153" t="s">
-        <v>109</v>
-      </c>
-      <c r="D58" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E58" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F58" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G58" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H58" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I58" s="154" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A59" s="153" t="s">
-        <v>107</v>
-      </c>
-      <c r="B59" s="153" t="s">
-        <v>116</v>
-      </c>
-      <c r="C59" s="153" t="s">
+      <c r="A58" s="156"/>
+      <c r="B58" s="156"/>
+      <c r="C58" s="156"/>
+      <c r="D58" s="156"/>
+      <c r="E58" s="156"/>
+      <c r="F58" s="156"/>
+      <c r="G58" s="156"/>
+      <c r="H58" s="156"/>
+      <c r="I58" s="156"/>
+    </row>
+    <row r="59" spans="1:9" s="91" customFormat="1" ht="27.100000" customHeight="1">
+      <c r="A59" s="149" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" s="149"/>
+      <c r="C59" s="149"/>
+      <c r="D59" s="150" t="s">
+        <v>131</v>
+      </c>
+      <c r="E59" s="150"/>
+      <c r="F59" s="150"/>
+      <c r="G59" s="149"/>
+      <c r="H59" s="149"/>
+      <c r="I59" s="149"/>
+    </row>
+    <row r="60" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A60" s="151" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="151" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="151" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="151" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="151" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="151" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="152" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60" s="152" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" s="152" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A61" s="157" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="157" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E59" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F59" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G59" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H59" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I59" s="154" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A60" s="156"/>
-      <c r="B60" s="156"/>
-      <c r="C60" s="156"/>
-      <c r="D60" s="156"/>
-      <c r="E60" s="156"/>
-      <c r="F60" s="156"/>
-      <c r="G60" s="156"/>
-      <c r="H60" s="156"/>
-      <c r="I60" s="156"/>
-    </row>
-    <row r="61" spans="1:9" s="91" customFormat="1" ht="32.550000" customHeight="1">
-      <c r="A61" s="149" t="s">
-        <v>117</v>
-      </c>
-      <c r="B61" s="149"/>
-      <c r="C61" s="149"/>
-      <c r="D61" s="150" t="s">
-        <v>118</v>
-      </c>
-      <c r="E61" s="150"/>
-      <c r="F61" s="150"/>
-      <c r="G61" s="149"/>
-      <c r="H61" s="149"/>
-      <c r="I61" s="149"/>
+      <c r="D61" s="158" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G61" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="H61" s="158" t="s">
+        <v>30</v>
+      </c>
+      <c r="I61" s="158" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="62" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A62" s="151" t="s">
+      <c r="A62" s="157" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="157" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G62" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="H62" s="158" t="s">
+        <v>30</v>
+      </c>
+      <c r="I62" s="158" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A63" s="157" t="s">
+        <v>134</v>
+      </c>
+      <c r="B63" s="157" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" s="157" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G63" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="H63" s="158" t="s">
+        <v>30</v>
+      </c>
+      <c r="I63" s="158" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A64" s="157" t="s">
+        <v>135</v>
+      </c>
+      <c r="B64" s="157" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" s="157" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="E64" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="H64" s="158" t="s">
+        <v>30</v>
+      </c>
+      <c r="I64" s="158" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A65" s="156"/>
+      <c r="B65" s="156"/>
+      <c r="C65" s="156"/>
+      <c r="D65" s="156"/>
+      <c r="E65" s="156"/>
+      <c r="F65" s="156"/>
+      <c r="G65" s="156"/>
+      <c r="H65" s="156"/>
+      <c r="I65" s="156"/>
+    </row>
+    <row r="66" spans="1:9" s="91" customFormat="1" ht="29.000000" customHeight="1">
+      <c r="A66" s="149" t="s">
+        <v>140</v>
+      </c>
+      <c r="B66" s="149"/>
+      <c r="C66" s="149"/>
+      <c r="D66" s="150" t="s">
+        <v>141</v>
+      </c>
+      <c r="E66" s="150"/>
+      <c r="F66" s="150"/>
+      <c r="G66" s="149"/>
+      <c r="H66" s="149"/>
+      <c r="I66" s="149"/>
+    </row>
+    <row r="67" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A67" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="151" t="s">
+      <c r="B67" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="151" t="s">
+      <c r="C67" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="D62" s="151" t="s">
+      <c r="D67" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="151" t="s">
+      <c r="E67" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="F62" s="151" t="s">
+      <c r="F67" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="G62" s="152" t="s">
+      <c r="G67" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="H62" s="152" t="s">
+      <c r="H67" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="I62" s="152" t="s">
+      <c r="I67" s="152" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A63" s="159" t="s">
-        <v>119</v>
-      </c>
-      <c r="B63" s="159" t="s">
-        <v>124</v>
-      </c>
-      <c r="C63" s="159" t="s">
-        <v>68</v>
-      </c>
-      <c r="D63" s="154" t="s">
-        <v>27</v>
-      </c>
-      <c r="E63" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F63" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G63" s="154" t="s">
-        <v>27</v>
-      </c>
-      <c r="H63" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I63" s="154" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A64" s="153" t="s">
-        <v>120</v>
-      </c>
-      <c r="B64" s="153" t="s">
-        <v>125</v>
-      </c>
-      <c r="C64" s="153" t="s">
-        <v>68</v>
-      </c>
-      <c r="D64" s="154" t="s">
-        <v>27</v>
-      </c>
-      <c r="E64" s="154" t="s">
-        <v>27</v>
-      </c>
-      <c r="F64" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G64" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H64" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I64" s="154" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A65" s="153" t="s">
-        <v>121</v>
-      </c>
-      <c r="B65" s="153" t="s">
-        <v>110</v>
-      </c>
-      <c r="C65" s="153" t="s">
-        <v>21</v>
-      </c>
-      <c r="D65" s="154" t="s">
-        <v>27</v>
-      </c>
-      <c r="E65" s="154" t="s">
-        <v>27</v>
-      </c>
-      <c r="F65" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G65" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H65" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I65" s="154" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A66" s="153" t="s">
-        <v>127</v>
-      </c>
-      <c r="B66" s="153" t="s">
-        <v>111</v>
-      </c>
-      <c r="C66" s="153" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66" s="154" t="s">
-        <v>27</v>
-      </c>
-      <c r="E66" s="154" t="s">
-        <v>27</v>
-      </c>
-      <c r="F66" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G66" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H66" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I66" s="154" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A67" s="153" t="s">
-        <v>122</v>
-      </c>
-      <c r="B67" s="153" t="s">
-        <v>128</v>
-      </c>
-      <c r="C67" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="D67" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E67" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F67" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G67" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H67" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I67" s="154" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:9" s="91" customFormat="1" ht="12.000000">
       <c r="A68" s="153" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="B68" s="153" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="C68" s="153" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="154" t="s">
+        <v>27</v>
+      </c>
+      <c r="E68" s="154" t="s">
+        <v>27</v>
+      </c>
+      <c r="F68" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G68" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H68" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I68" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A69" s="153" t="s">
+        <v>143</v>
+      </c>
+      <c r="B69" s="153" t="s">
+        <v>155</v>
+      </c>
+      <c r="C69" s="153" t="s">
+        <v>151</v>
+      </c>
+      <c r="D69" s="154" t="s">
+        <v>27</v>
+      </c>
+      <c r="E69" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G69" s="154" t="s">
+        <v>27</v>
+      </c>
+      <c r="H69" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I69" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A70" s="153" t="s">
+        <v>144</v>
+      </c>
+      <c r="B70" s="153" t="s">
+        <v>156</v>
+      </c>
+      <c r="C70" s="153" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70" s="154" t="s">
+        <v>27</v>
+      </c>
+      <c r="F70" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G70" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H70" s="154" t="s">
+        <v>82</v>
+      </c>
+      <c r="I70" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A71" s="153" t="s">
+        <v>145</v>
+      </c>
+      <c r="B71" s="153" t="s">
+        <v>158</v>
+      </c>
+      <c r="C71" s="153" t="s">
+        <v>152</v>
+      </c>
+      <c r="D71" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G71" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H71" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I71" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A72" s="153" t="s">
+        <v>146</v>
+      </c>
+      <c r="B72" s="153" t="s">
+        <v>159</v>
+      </c>
+      <c r="C72" s="153" t="s">
         <v>81</v>
       </c>
-      <c r="D68" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E68" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F68" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G68" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H68" s="154" t="s">
+      <c r="D72" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E72" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G72" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H72" s="154" t="s">
         <v>82</v>
       </c>
-      <c r="I68" s="154" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A69" s="156"/>
-      <c r="B69" s="156"/>
-      <c r="C69" s="156"/>
-      <c r="D69" s="156"/>
-      <c r="E69" s="156"/>
-      <c r="F69" s="156"/>
-      <c r="G69" s="156"/>
-      <c r="H69" s="156"/>
-      <c r="I69" s="156"/>
-    </row>
-    <row r="70" spans="1:9" s="91" customFormat="1" ht="29.150000" customHeight="1">
-      <c r="A70" s="149" t="s">
-        <v>130</v>
-      </c>
-      <c r="B70" s="149"/>
-      <c r="C70" s="149"/>
-      <c r="D70" s="150" t="s">
-        <v>131</v>
-      </c>
-      <c r="E70" s="150"/>
-      <c r="F70" s="150"/>
-      <c r="G70" s="149"/>
-      <c r="H70" s="149"/>
-      <c r="I70" s="149"/>
-    </row>
-    <row r="71" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A71" s="151" t="s">
+      <c r="I72" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A73" s="153" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" s="153" t="s">
+        <v>160</v>
+      </c>
+      <c r="C73" s="153" t="s">
+        <v>81</v>
+      </c>
+      <c r="D73" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E73" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G73" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H73" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I73" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A74" s="153" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" s="153" t="s">
+        <v>161</v>
+      </c>
+      <c r="C74" s="153" t="s">
+        <v>153</v>
+      </c>
+      <c r="D74" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E74" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F74" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G74" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H74" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I74" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A75" s="153" t="s">
+        <v>149</v>
+      </c>
+      <c r="B75" s="153" t="s">
+        <v>162</v>
+      </c>
+      <c r="C75" s="153" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E75" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G75" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H75" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I75" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A76" s="153" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="153" t="s">
+        <v>163</v>
+      </c>
+      <c r="C76" s="153" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E76" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G76" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H76" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I76" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A77" s="156"/>
+      <c r="B77" s="156"/>
+      <c r="C77" s="156"/>
+      <c r="D77" s="156"/>
+      <c r="E77" s="156"/>
+      <c r="F77" s="156"/>
+      <c r="G77" s="156"/>
+      <c r="H77" s="156"/>
+      <c r="I77" s="156"/>
+    </row>
+    <row r="78" spans="1:9" s="91" customFormat="1" ht="24.800000" customHeight="1">
+      <c r="A78" s="149" t="s">
+        <v>164</v>
+      </c>
+      <c r="B78" s="149"/>
+      <c r="C78" s="149"/>
+      <c r="D78" s="150" t="s">
+        <v>165</v>
+      </c>
+      <c r="E78" s="150"/>
+      <c r="F78" s="150"/>
+      <c r="G78" s="149"/>
+      <c r="H78" s="149"/>
+      <c r="I78" s="149"/>
+    </row>
+    <row r="79" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A79" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="151" t="s">
+      <c r="B79" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="151" t="s">
+      <c r="C79" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="D71" s="151" t="s">
+      <c r="D79" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="E71" s="151" t="s">
+      <c r="E79" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="F71" s="151" t="s">
+      <c r="F79" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="G71" s="152" t="s">
+      <c r="G79" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="H71" s="152" t="s">
+      <c r="H79" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="I71" s="152" t="s">
+      <c r="I79" s="152" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A72" s="157" t="s">
-        <v>132</v>
-      </c>
-      <c r="B72" s="157" t="s">
-        <v>136</v>
-      </c>
-      <c r="C72" s="157" t="s">
-        <v>21</v>
-      </c>
-      <c r="D72" s="158" t="s">
-        <v>27</v>
-      </c>
-      <c r="E72" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="F72" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="G72" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="H72" s="158" t="s">
-        <v>30</v>
-      </c>
-      <c r="I72" s="158" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A73" s="157" t="s">
-        <v>133</v>
-      </c>
-      <c r="B73" s="157" t="s">
-        <v>137</v>
-      </c>
-      <c r="C73" s="157" t="s">
-        <v>21</v>
-      </c>
-      <c r="D73" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="E73" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="F73" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="G73" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="H73" s="158" t="s">
-        <v>30</v>
-      </c>
-      <c r="I73" s="158" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A74" s="157" t="s">
-        <v>134</v>
-      </c>
-      <c r="B74" s="157" t="s">
-        <v>138</v>
-      </c>
-      <c r="C74" s="157" t="s">
-        <v>24</v>
-      </c>
-      <c r="D74" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="E74" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="F74" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="G74" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="H74" s="158" t="s">
-        <v>30</v>
-      </c>
-      <c r="I74" s="158" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A75" s="157" t="s">
-        <v>135</v>
-      </c>
-      <c r="B75" s="157" t="s">
-        <v>139</v>
-      </c>
-      <c r="C75" s="157" t="s">
-        <v>25</v>
-      </c>
-      <c r="D75" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="E75" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="F75" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="G75" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="H75" s="158" t="s">
-        <v>30</v>
-      </c>
-      <c r="I75" s="158" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A76" s="156"/>
-      <c r="B76" s="156"/>
-      <c r="C76" s="156"/>
-      <c r="D76" s="156"/>
-      <c r="E76" s="156"/>
-      <c r="F76" s="156"/>
-      <c r="G76" s="156"/>
-      <c r="H76" s="156"/>
-      <c r="I76" s="156"/>
-    </row>
-    <row r="77" spans="1:9" s="91" customFormat="1" ht="36.850000" customHeight="1">
-      <c r="A77" s="149" t="s">
-        <v>140</v>
-      </c>
-      <c r="B77" s="149"/>
-      <c r="C77" s="149"/>
-      <c r="D77" s="150" t="s">
-        <v>141</v>
-      </c>
-      <c r="E77" s="150"/>
-      <c r="F77" s="150"/>
-      <c r="G77" s="149"/>
-      <c r="H77" s="149"/>
-      <c r="I77" s="149"/>
-    </row>
-    <row r="78" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A78" s="151" t="s">
-        <v>1</v>
-      </c>
-      <c r="B78" s="151" t="s">
-        <v>2</v>
-      </c>
-      <c r="C78" s="151" t="s">
-        <v>3</v>
-      </c>
-      <c r="D78" s="151" t="s">
-        <v>4</v>
-      </c>
-      <c r="E78" s="151" t="s">
-        <v>5</v>
-      </c>
-      <c r="F78" s="151" t="s">
-        <v>6</v>
-      </c>
-      <c r="G78" s="152" t="s">
-        <v>9</v>
-      </c>
-      <c r="H78" s="152" t="s">
-        <v>28</v>
-      </c>
-      <c r="I78" s="152" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A79" s="153" t="s">
-        <v>142</v>
-      </c>
-      <c r="B79" s="153" t="s">
-        <v>154</v>
-      </c>
-      <c r="C79" s="153" t="s">
-        <v>21</v>
-      </c>
-      <c r="D79" s="154" t="s">
-        <v>27</v>
-      </c>
-      <c r="E79" s="154" t="s">
-        <v>27</v>
-      </c>
-      <c r="F79" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G79" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H79" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I79" s="154" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:9" s="91" customFormat="1" ht="12.000000">
       <c r="A80" s="153" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="B80" s="153" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="C80" s="153" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="D80" s="154" t="s">
         <v>27</v>
@@ -4257,7 +4389,7 @@
         <v>29</v>
       </c>
       <c r="G80" s="154" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H80" s="154" t="s">
         <v>30</v>
@@ -4268,19 +4400,19 @@
     </row>
     <row r="81" spans="1:9" s="91" customFormat="1" ht="12.000000">
       <c r="A81" s="153" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="B81" s="153" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="C81" s="153" t="s">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="D81" s="154" t="s">
         <v>29</v>
       </c>
       <c r="E81" s="154" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F81" s="154" t="s">
         <v>29</v>
@@ -4289,143 +4421,93 @@
         <v>29</v>
       </c>
       <c r="H81" s="154" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="I81" s="154" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A82" s="153" t="s">
-        <v>145</v>
-      </c>
-      <c r="B82" s="153" t="s">
-        <v>158</v>
-      </c>
-      <c r="C82" s="153" t="s">
-        <v>152</v>
-      </c>
-      <c r="D82" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E82" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F82" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G82" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H82" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I82" s="154" t="s">
-        <v>29</v>
-      </c>
+      <c r="A82" s="0"/>
+      <c r="B82" s="0"/>
+      <c r="C82" s="0"/>
+      <c r="D82" s="0"/>
+      <c r="E82" s="0"/>
+      <c r="F82" s="0"/>
+      <c r="G82" s="0"/>
+      <c r="H82" s="0"/>
+      <c r="I82" s="0"/>
     </row>
     <row r="83" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A83" s="153" t="s">
-        <v>146</v>
-      </c>
-      <c r="B83" s="153" t="s">
-        <v>159</v>
-      </c>
-      <c r="C83" s="153" t="s">
-        <v>81</v>
-      </c>
-      <c r="D83" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E83" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F83" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G83" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H83" s="154" t="s">
-        <v>82</v>
-      </c>
-      <c r="I83" s="154" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A84" s="153" t="s">
-        <v>147</v>
-      </c>
-      <c r="B84" s="153" t="s">
-        <v>160</v>
-      </c>
-      <c r="C84" s="153" t="s">
-        <v>81</v>
-      </c>
-      <c r="D84" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E84" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F84" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G84" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H84" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I84" s="154" t="s">
-        <v>29</v>
-      </c>
+      <c r="A83" s="0"/>
+      <c r="B83" s="0"/>
+      <c r="C83" s="0"/>
+      <c r="D83" s="0"/>
+      <c r="E83" s="0"/>
+      <c r="F83" s="0"/>
+      <c r="G83" s="0"/>
+      <c r="H83" s="0"/>
+      <c r="I83" s="0"/>
+    </row>
+    <row r="84" spans="1:9" s="91" customFormat="1" ht="25.250000" customHeight="1">
+      <c r="A84" s="149" t="s">
+        <v>171</v>
+      </c>
+      <c r="B84" s="149"/>
+      <c r="C84" s="149"/>
+      <c r="D84" s="150" t="s">
+        <v>172</v>
+      </c>
+      <c r="E84" s="150"/>
+      <c r="F84" s="150"/>
+      <c r="G84" s="149"/>
+      <c r="H84" s="149"/>
+      <c r="I84" s="149"/>
     </row>
     <row r="85" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A85" s="153" t="s">
-        <v>148</v>
-      </c>
-      <c r="B85" s="153" t="s">
-        <v>161</v>
-      </c>
-      <c r="C85" s="153" t="s">
-        <v>153</v>
-      </c>
-      <c r="D85" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E85" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F85" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G85" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H85" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I85" s="154" t="s">
-        <v>29</v>
+      <c r="A85" s="151" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85" s="151" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85" s="151" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" s="151" t="s">
+        <v>4</v>
+      </c>
+      <c r="E85" s="151" t="s">
+        <v>5</v>
+      </c>
+      <c r="F85" s="151" t="s">
+        <v>6</v>
+      </c>
+      <c r="G85" s="152" t="s">
+        <v>9</v>
+      </c>
+      <c r="H85" s="152" t="s">
+        <v>28</v>
+      </c>
+      <c r="I85" s="152" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:9" s="91" customFormat="1" ht="12.000000">
       <c r="A86" s="153" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="B86" s="153" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="C86" s="153" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D86" s="154" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E86" s="154" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F86" s="154" t="s">
         <v>29</v>
@@ -4442,16 +4524,16 @@
     </row>
     <row r="87" spans="1:9" s="91" customFormat="1" ht="12.000000">
       <c r="A87" s="153" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="B87" s="153" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C87" s="153" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="D87" s="154" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E87" s="154" t="s">
         <v>29</v>
@@ -4460,7 +4542,7 @@
         <v>29</v>
       </c>
       <c r="G87" s="154" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H87" s="154" t="s">
         <v>30</v>
@@ -4470,339 +4552,312 @@
       </c>
     </row>
     <row r="88" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A88" s="156"/>
-      <c r="B88" s="156"/>
-      <c r="C88" s="156"/>
-      <c r="D88" s="156"/>
-      <c r="E88" s="156"/>
-      <c r="F88" s="156"/>
-      <c r="G88" s="156"/>
-      <c r="H88" s="156"/>
-      <c r="I88" s="156"/>
-    </row>
-    <row r="89" spans="1:9" s="91" customFormat="1" ht="30.850000" customHeight="1">
-      <c r="A89" s="149" t="s">
-        <v>164</v>
-      </c>
-      <c r="B89" s="149"/>
-      <c r="C89" s="149"/>
-      <c r="D89" s="150" t="s">
-        <v>165</v>
-      </c>
-      <c r="E89" s="150"/>
-      <c r="F89" s="150"/>
-      <c r="G89" s="149"/>
-      <c r="H89" s="149"/>
-      <c r="I89" s="149"/>
+      <c r="A88" s="153" t="s">
+        <v>175</v>
+      </c>
+      <c r="B88" s="153" t="s">
+        <v>179</v>
+      </c>
+      <c r="C88" s="153" t="s">
+        <v>25</v>
+      </c>
+      <c r="D88" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E88" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F88" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G88" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H88" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I88" s="154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A89" s="153" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" s="153" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89" s="153" t="s">
+        <v>108</v>
+      </c>
+      <c r="D89" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E89" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F89" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G89" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H89" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I89" s="154" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="90" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A90" s="151" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="151" t="s">
-        <v>2</v>
-      </c>
-      <c r="C90" s="151" t="s">
-        <v>3</v>
-      </c>
-      <c r="D90" s="151" t="s">
-        <v>4</v>
-      </c>
-      <c r="E90" s="151" t="s">
-        <v>5</v>
-      </c>
-      <c r="F90" s="151" t="s">
-        <v>6</v>
-      </c>
-      <c r="G90" s="152" t="s">
-        <v>9</v>
-      </c>
-      <c r="H90" s="152" t="s">
-        <v>28</v>
-      </c>
-      <c r="I90" s="152" t="s">
-        <v>7</v>
+      <c r="A90" s="153" t="s">
+        <v>177</v>
+      </c>
+      <c r="B90" s="153" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" s="153" t="s">
+        <v>38</v>
+      </c>
+      <c r="D90" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E90" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F90" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G90" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H90" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I90" s="154" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="91" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A91" s="153" t="s">
-        <v>166</v>
-      </c>
-      <c r="B91" s="153" t="s">
-        <v>169</v>
-      </c>
-      <c r="C91" s="153" t="s">
-        <v>109</v>
-      </c>
-      <c r="D91" s="154" t="s">
-        <v>27</v>
-      </c>
-      <c r="E91" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F91" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G91" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H91" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I91" s="154" t="s">
-        <v>29</v>
-      </c>
+      <c r="A91" s="91"/>
+      <c r="B91" s="91"/>
+      <c r="C91" s="91"/>
+      <c r="D91" s="91"/>
+      <c r="E91" s="91"/>
+      <c r="F91" s="91"/>
+      <c r="G91" s="91"/>
+      <c r="H91" s="91"/>
+      <c r="I91" s="91"/>
     </row>
     <row r="92" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A92" s="153" t="s">
-        <v>167</v>
-      </c>
-      <c r="B92" s="153" t="s">
-        <v>170</v>
-      </c>
-      <c r="C92" s="153" t="s">
-        <v>168</v>
-      </c>
-      <c r="D92" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E92" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F92" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G92" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H92" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I92" s="154" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="30.000000" customHeight="1">
-      <c r="A97" s="149" t="s">
-        <v>171</v>
-      </c>
-      <c r="B97" s="149"/>
-      <c r="C97" s="149"/>
-      <c r="D97" s="150" t="s">
-        <v>172</v>
-      </c>
-      <c r="E97" s="150"/>
-      <c r="F97" s="150"/>
-      <c r="G97" s="149"/>
-      <c r="H97" s="149"/>
-      <c r="I97" s="149"/>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="151" t="s">
-        <v>1</v>
-      </c>
-      <c r="B98" s="151" t="s">
-        <v>2</v>
-      </c>
-      <c r="C98" s="151" t="s">
-        <v>3</v>
-      </c>
-      <c r="D98" s="151" t="s">
-        <v>4</v>
-      </c>
-      <c r="E98" s="151" t="s">
-        <v>5</v>
-      </c>
-      <c r="F98" s="151" t="s">
-        <v>6</v>
-      </c>
-      <c r="G98" s="152" t="s">
-        <v>9</v>
-      </c>
-      <c r="H98" s="152" t="s">
-        <v>28</v>
-      </c>
-      <c r="I98" s="152" t="s">
-        <v>7</v>
-      </c>
+      <c r="A92" s="91"/>
+      <c r="B92" s="91"/>
+      <c r="C92" s="91"/>
+      <c r="D92" s="91"/>
+      <c r="E92" s="91"/>
+      <c r="F92" s="91"/>
+      <c r="G92" s="91"/>
+      <c r="H92" s="91"/>
+      <c r="I92" s="91"/>
+    </row>
+    <row r="93" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A93" s="91"/>
+      <c r="B93" s="91"/>
+      <c r="C93" s="91"/>
+      <c r="D93" s="91"/>
+      <c r="E93" s="91"/>
+      <c r="F93" s="91"/>
+      <c r="G93" s="91"/>
+      <c r="H93" s="91"/>
+      <c r="I93" s="91"/>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="91"/>
+      <c r="B94" s="91"/>
+      <c r="C94" s="91"/>
+      <c r="D94" s="91"/>
+      <c r="E94" s="91"/>
+      <c r="F94" s="91"/>
+      <c r="G94" s="91"/>
+      <c r="H94" s="91"/>
+      <c r="I94" s="91"/>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="91"/>
+      <c r="B95" s="91"/>
+      <c r="C95" s="91"/>
+      <c r="D95" s="91"/>
+      <c r="E95" s="91"/>
+      <c r="F95" s="91"/>
+      <c r="G95" s="91"/>
+      <c r="H95" s="91"/>
+      <c r="I95" s="91"/>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="91"/>
+      <c r="B96" s="91"/>
+      <c r="C96" s="91"/>
+      <c r="D96" s="91"/>
+      <c r="E96" s="91"/>
+      <c r="F96" s="91"/>
+      <c r="G96" s="91"/>
+      <c r="H96" s="91"/>
+      <c r="I96" s="91"/>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="91"/>
+      <c r="B97" s="91"/>
+      <c r="C97" s="91"/>
+      <c r="D97" s="91"/>
+      <c r="E97" s="91"/>
+      <c r="F97" s="91"/>
+      <c r="G97" s="91"/>
+      <c r="H97" s="91"/>
+      <c r="I97" s="91"/>
+    </row>
+    <row r="98" spans="1:9" ht="30.000000" customHeight="1">
+      <c r="A98" s="91"/>
+      <c r="B98" s="91"/>
+      <c r="C98" s="91"/>
+      <c r="D98" s="91"/>
+      <c r="E98" s="91"/>
+      <c r="F98" s="91"/>
+      <c r="G98" s="91"/>
+      <c r="H98" s="91"/>
+      <c r="I98" s="91"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="153" t="s">
-        <v>173</v>
-      </c>
-      <c r="B99" s="153" t="s">
-        <v>16</v>
-      </c>
-      <c r="C99" s="153" t="s">
-        <v>21</v>
-      </c>
-      <c r="D99" s="154" t="s">
-        <v>27</v>
-      </c>
-      <c r="E99" s="154" t="s">
-        <v>27</v>
-      </c>
-      <c r="F99" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G99" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H99" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I99" s="154" t="s">
-        <v>29</v>
-      </c>
+      <c r="A99" s="91"/>
+      <c r="B99" s="91"/>
+      <c r="C99" s="91"/>
+      <c r="D99" s="91"/>
+      <c r="E99" s="91"/>
+      <c r="F99" s="91"/>
+      <c r="G99" s="91"/>
+      <c r="H99" s="91"/>
+      <c r="I99" s="91"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="153" t="s">
-        <v>174</v>
-      </c>
-      <c r="B100" s="153" t="s">
-        <v>178</v>
-      </c>
-      <c r="C100" s="153" t="s">
-        <v>68</v>
-      </c>
-      <c r="D100" s="154" t="s">
-        <v>27</v>
-      </c>
-      <c r="E100" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F100" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G100" s="154" t="s">
-        <v>27</v>
-      </c>
-      <c r="H100" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I100" s="154" t="s">
-        <v>29</v>
-      </c>
+      <c r="A100" s="91"/>
+      <c r="B100" s="91"/>
+      <c r="C100" s="91"/>
+      <c r="D100" s="91"/>
+      <c r="E100" s="91"/>
+      <c r="F100" s="91"/>
+      <c r="G100" s="91"/>
+      <c r="H100" s="91"/>
+      <c r="I100" s="91"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="153" t="s">
-        <v>175</v>
-      </c>
-      <c r="B101" s="153" t="s">
-        <v>179</v>
-      </c>
-      <c r="C101" s="153" t="s">
-        <v>25</v>
-      </c>
-      <c r="D101" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E101" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F101" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G101" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H101" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I101" s="154" t="s">
-        <v>29</v>
-      </c>
+      <c r="A101" s="91"/>
+      <c r="B101" s="91"/>
+      <c r="C101" s="91"/>
+      <c r="D101" s="91"/>
+      <c r="E101" s="91"/>
+      <c r="F101" s="91"/>
+      <c r="G101" s="91"/>
+      <c r="H101" s="91"/>
+      <c r="I101" s="91"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="153" t="s">
-        <v>176</v>
-      </c>
-      <c r="B102" s="153" t="s">
-        <v>180</v>
-      </c>
-      <c r="C102" s="153" t="s">
-        <v>108</v>
-      </c>
-      <c r="D102" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E102" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F102" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G102" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H102" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I102" s="154" t="s">
-        <v>29</v>
-      </c>
+      <c r="A102" s="91"/>
+      <c r="B102" s="91"/>
+      <c r="C102" s="91"/>
+      <c r="D102" s="91"/>
+      <c r="E102" s="91"/>
+      <c r="F102" s="91"/>
+      <c r="G102" s="91"/>
+      <c r="H102" s="91"/>
+      <c r="I102" s="91"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="153" t="s">
-        <v>177</v>
-      </c>
-      <c r="B103" s="153" t="s">
-        <v>181</v>
-      </c>
-      <c r="C103" s="153" t="s">
-        <v>38</v>
-      </c>
-      <c r="D103" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E103" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F103" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G103" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H103" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I103" s="154" t="s">
-        <v>29</v>
-      </c>
+      <c r="A103" s="91"/>
+      <c r="B103" s="91"/>
+      <c r="C103" s="91"/>
+      <c r="D103" s="91"/>
+      <c r="E103" s="91"/>
+      <c r="F103" s="91"/>
+      <c r="G103" s="91"/>
+      <c r="H103" s="91"/>
+      <c r="I103" s="91"/>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="91"/>
+      <c r="B104" s="91"/>
+      <c r="C104" s="91"/>
+      <c r="D104" s="91"/>
+      <c r="E104" s="91"/>
+      <c r="F104" s="91"/>
+      <c r="G104" s="91"/>
+      <c r="H104" s="91"/>
+      <c r="I104" s="91"/>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="91"/>
+      <c r="B105" s="91"/>
+      <c r="C105" s="91"/>
+      <c r="D105" s="91"/>
+      <c r="E105" s="91"/>
+      <c r="F105" s="91"/>
+      <c r="G105" s="91"/>
+      <c r="H105" s="91"/>
+      <c r="I105" s="91"/>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="91"/>
+      <c r="B106" s="91"/>
+      <c r="C106" s="91"/>
+      <c r="D106" s="91"/>
+      <c r="E106" s="91"/>
+      <c r="F106" s="91"/>
+      <c r="G106" s="91"/>
+      <c r="H106" s="91"/>
+      <c r="I106" s="91"/>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="91"/>
+      <c r="B107" s="91"/>
+      <c r="C107" s="91"/>
+      <c r="D107" s="91"/>
+      <c r="E107" s="91"/>
+      <c r="F107" s="91"/>
+      <c r="G107" s="91"/>
+      <c r="H107" s="91"/>
+      <c r="I107" s="91"/>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="0"/>
+      <c r="B108" s="0"/>
+      <c r="C108" s="0"/>
+      <c r="D108" s="0"/>
+      <c r="E108" s="0"/>
+      <c r="F108" s="0"/>
+      <c r="G108" s="0"/>
+      <c r="H108" s="0"/>
+      <c r="I108" s="0"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="13">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:I3"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="D11:I11"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="D51:I51"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="D70:I70"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="D89:I89"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="D97:I97"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="D50:I50"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="D66:I66"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="D84:I84"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" scale="92" orientation="portrait"/>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="48" max="100" man="1"/>
-    <brk id="101" max="8" man="1"/>
+    <brk id="49" max="100" man="1"/>
+    <brk id="102" max="8" man="1"/>
   </rowBreaks>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/Project_Design/ERD,테이블정의서/1차 테이블정의서.xlsx
+++ b/Project_Design/ERD,테이블정의서/1차 테이블정의서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.121.46349"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1153,7 +1153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1355,18 +1355,6 @@
       <bottom/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -1562,7 +1550,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2046,8 +2034,8 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2058,16 +2046,10 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="33" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="33" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="33" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="33" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2390,8 +2372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" tabSelected="1" view="pageBreakPreview" zoomScale="140" zoomScaleNormal="90" zoomScaleSheetLayoutView="140" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="140" zoomScaleNormal="90" zoomScaleSheetLayoutView="140" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -2599,7 +2581,7 @@
         <v>29</v>
       </c>
       <c r="H9" s="154" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I9" s="154" t="s">
         <v>29</v>
@@ -4638,39 +4620,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A91" s="91"/>
-      <c r="B91" s="91"/>
-      <c r="C91" s="91"/>
-      <c r="D91" s="91"/>
-      <c r="E91" s="91"/>
-      <c r="F91" s="91"/>
-      <c r="G91" s="91"/>
-      <c r="H91" s="91"/>
-      <c r="I91" s="91"/>
-    </row>
-    <row r="92" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A92" s="91"/>
-      <c r="B92" s="91"/>
-      <c r="C92" s="91"/>
-      <c r="D92" s="91"/>
-      <c r="E92" s="91"/>
-      <c r="F92" s="91"/>
-      <c r="G92" s="91"/>
-      <c r="H92" s="91"/>
-      <c r="I92" s="91"/>
-    </row>
-    <row r="93" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A93" s="91"/>
-      <c r="B93" s="91"/>
-      <c r="C93" s="91"/>
-      <c r="D93" s="91"/>
-      <c r="E93" s="91"/>
-      <c r="F93" s="91"/>
-      <c r="G93" s="91"/>
-      <c r="H93" s="91"/>
-      <c r="I93" s="91"/>
-    </row>
+    <row r="91" s="91" customFormat="1" ht="12.000000" customHeight="1"/>
+    <row r="92" s="91" customFormat="1" ht="12.000000" customHeight="1"/>
+    <row r="93" s="91" customFormat="1" ht="12.000000" customHeight="1"/>
     <row r="94" spans="1:9">
       <c r="A94" s="91"/>
       <c r="B94" s="91"/>
@@ -4824,17 +4776,6 @@
       <c r="G107" s="91"/>
       <c r="H107" s="91"/>
       <c r="I107" s="91"/>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="0"/>
-      <c r="B108" s="0"/>
-      <c r="C108" s="0"/>
-      <c r="D108" s="0"/>
-      <c r="E108" s="0"/>
-      <c r="F108" s="0"/>
-      <c r="G108" s="0"/>
-      <c r="H108" s="0"/>
-      <c r="I108" s="0"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/Project_Design/ERD,테이블정의서/1차 테이블정의서.xlsx
+++ b/Project_Design/ERD,테이블정의서/1차 테이블정의서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.121.46349"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="560" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$90</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$80</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
   <si>
     <t xml:space="preserve">테이블 ID : </t>
   </si>
@@ -632,6 +632,42 @@
   </si>
   <si>
     <t>ㅍ</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>학교 각 부서 소개 정보</t>
+  </si>
+  <si>
+    <t>질문 게시글 번호</t>
+  </si>
+  <si>
+    <t>QnA_QuestionerID</t>
+  </si>
+  <si>
+    <t>QnA_RespondentID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">학교 각 부서 소개 정보 </t>
+  </si>
+  <si>
+    <t>Alert_Alertnumber</t>
+  </si>
+  <si>
+    <t>Alert_User_ID</t>
+  </si>
+  <si>
+    <t>알림 대성</t>
+  </si>
+  <si>
+    <t>알림 대상 유저 아이디</t>
+  </si>
+  <si>
+    <t>varchar(2)</t>
   </si>
 </sst>
 </file>
@@ -2370,16 +2406,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I108"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="140" zoomScaleNormal="90" zoomScaleSheetLayoutView="140" workbookViewId="0">
+    <sheetView topLeftCell="A19" tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
     <col min="1" max="1" width="27.00499916" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" width="31.00499916" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="29.75499916" customWidth="1" outlineLevel="0"/>
     <col min="3" max="3" width="15.13000011" customWidth="1" outlineLevel="0"/>
     <col min="7" max="7" width="14.00500011" customWidth="1" outlineLevel="0"/>
     <col min="8" max="8" width="15.13000011" customWidth="1" outlineLevel="0"/>
@@ -2436,7 +2472,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="152" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="I4" s="152" t="s">
         <v>7</v>
@@ -2453,23 +2489,15 @@
         <v>21</v>
       </c>
       <c r="D5" s="154" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="154" t="s">
-        <v>29</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
       <c r="H5" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="154" t="s">
-        <v>29</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="I5" s="154"/>
     </row>
     <row r="6" spans="1:9" s="91" customFormat="1" ht="12.000000">
       <c r="A6" s="153" t="s">
@@ -2481,24 +2509,14 @@
       <c r="C6" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="154" t="s">
-        <v>29</v>
-      </c>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
       <c r="H6" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="154" t="s">
-        <v>29</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="I6" s="154"/>
     </row>
     <row r="7" spans="1:9" s="91" customFormat="1" ht="12.000000">
       <c r="A7" s="153" t="s">
@@ -2510,24 +2528,12 @@
       <c r="C7" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="154" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="154" t="s">
-        <v>29</v>
-      </c>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="154"/>
     </row>
     <row r="8" spans="1:9" s="91" customFormat="1" ht="12.000000">
       <c r="A8" s="153" t="s">
@@ -2539,24 +2545,14 @@
       <c r="C8" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="154" t="s">
-        <v>29</v>
-      </c>
+      <c r="D8" s="154"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="154"/>
       <c r="H8" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="154" t="s">
-        <v>29</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="I8" s="154"/>
     </row>
     <row r="9" spans="1:9" s="91" customFormat="1" ht="12.000000">
       <c r="A9" s="153" t="s">
@@ -2568,24 +2564,12 @@
       <c r="C9" s="153" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="154" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="154" t="s">
-        <v>29</v>
-      </c>
+      <c r="D9" s="154"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="154"/>
+      <c r="I9" s="154"/>
     </row>
     <row r="10" spans="1:9" s="91" customFormat="1" ht="12.000000">
       <c r="A10" s="155"/>
@@ -2636,7 +2620,7 @@
         <v>9</v>
       </c>
       <c r="H12" s="152" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="I12" s="152" t="s">
         <v>7</v>
@@ -2652,24 +2636,18 @@
       <c r="C13" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="158" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="158" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="158" t="s">
-        <v>29</v>
-      </c>
+      <c r="D13" s="154" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" s="154" t="s">
+        <v>202</v>
+      </c>
+      <c r="F13" s="158"/>
+      <c r="G13" s="158"/>
       <c r="H13" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="158" t="s">
-        <v>29</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="I13" s="158"/>
     </row>
     <row r="14" spans="1:9" s="91" customFormat="1" ht="12.000000">
       <c r="A14" s="157" t="s">
@@ -2681,24 +2659,14 @@
       <c r="C14" s="157" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="158" t="s">
-        <v>29</v>
-      </c>
+      <c r="D14" s="158"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
       <c r="H14" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="158" t="s">
-        <v>29</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="I14" s="158"/>
     </row>
     <row r="15" spans="1:9" s="91" customFormat="1" ht="12.000000">
       <c r="A15" s="157" t="s">
@@ -2710,24 +2678,14 @@
       <c r="C15" s="157" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="158" t="s">
-        <v>29</v>
-      </c>
+      <c r="D15" s="158"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="158"/>
       <c r="H15" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="158" t="s">
-        <v>29</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="I15" s="158"/>
     </row>
     <row r="16" spans="1:9" s="91" customFormat="1" ht="12.000000">
       <c r="A16" s="157" t="s">
@@ -2739,24 +2697,14 @@
       <c r="C16" s="157" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="158" t="s">
-        <v>29</v>
-      </c>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
       <c r="H16" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" s="158" t="s">
-        <v>29</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="I16" s="158"/>
     </row>
     <row r="17" spans="1:9" s="91" customFormat="1" ht="12.000000">
       <c r="A17" s="157" t="s">
@@ -2768,24 +2716,14 @@
       <c r="C17" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="158" t="s">
-        <v>29</v>
-      </c>
+      <c r="D17" s="158"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
       <c r="H17" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="158" t="s">
-        <v>29</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="I17" s="158"/>
     </row>
     <row r="18" spans="1:9" s="91" customFormat="1" ht="12.000000">
       <c r="A18" s="157" t="s">
@@ -2797,24 +2735,14 @@
       <c r="C18" s="157" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="158" t="s">
-        <v>29</v>
-      </c>
+      <c r="D18" s="158"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="158"/>
       <c r="H18" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" s="158" t="s">
-        <v>29</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="I18" s="158"/>
     </row>
     <row r="19" spans="1:9" s="91" customFormat="1" ht="12.000000">
       <c r="A19" s="157" t="s">
@@ -2826,24 +2754,12 @@
       <c r="C19" s="157" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="158" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19" s="158" t="s">
-        <v>29</v>
-      </c>
+      <c r="D19" s="158"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="158"/>
     </row>
     <row r="20" spans="1:9" s="91" customFormat="1" ht="12.000000">
       <c r="A20" s="157" t="s">
@@ -2855,29 +2771,17 @@
       <c r="C20" s="157" t="s">
         <v>109</v>
       </c>
-      <c r="D20" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="158" t="s">
-        <v>82</v>
-      </c>
-      <c r="I20" s="158" t="s">
-        <v>29</v>
-      </c>
+      <c r="D20" s="158"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="158"/>
+      <c r="I20" s="158"/>
     </row>
     <row r="21" s="91" customFormat="1" ht="12.000000" customHeight="1"/>
     <row r="22" spans="1:9" s="91" customFormat="1" ht="29.000000" customHeight="1">
       <c r="A22" s="149" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B22" s="149"/>
       <c r="C22" s="149"/>
@@ -2913,7 +2817,7 @@
         <v>9</v>
       </c>
       <c r="H23" s="152" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="I23" s="152" t="s">
         <v>7</v>
@@ -2929,24 +2833,18 @@
       <c r="C24" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="158" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="158" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="158" t="s">
-        <v>29</v>
-      </c>
+      <c r="D24" s="154" t="s">
+        <v>202</v>
+      </c>
+      <c r="E24" s="154" t="s">
+        <v>202</v>
+      </c>
+      <c r="F24" s="158"/>
+      <c r="G24" s="158"/>
       <c r="H24" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I24" s="158" t="s">
-        <v>29</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="I24" s="158"/>
     </row>
     <row r="25" spans="1:9" s="91" customFormat="1" ht="12.000000">
       <c r="A25" s="157" t="s">
@@ -2958,24 +2856,18 @@
       <c r="C25" s="157" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="158" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="158" t="s">
-        <v>27</v>
+      <c r="D25" s="154" t="s">
+        <v>202</v>
+      </c>
+      <c r="E25" s="158"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="154" t="s">
+        <v>202</v>
       </c>
       <c r="H25" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I25" s="158" t="s">
-        <v>29</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="I25" s="158"/>
     </row>
     <row r="26" spans="1:9" s="91" customFormat="1" ht="12.000000">
       <c r="A26" s="157" t="s">
@@ -2987,24 +2879,14 @@
       <c r="C26" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" s="158" t="s">
-        <v>29</v>
-      </c>
+      <c r="D26" s="158"/>
+      <c r="E26" s="158"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="158"/>
       <c r="H26" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I26" s="158" t="s">
-        <v>29</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="I26" s="158"/>
     </row>
     <row r="27" spans="1:9" s="91" customFormat="1" ht="12.000000">
       <c r="A27" s="157" t="s">
@@ -3016,24 +2898,12 @@
       <c r="C27" s="157" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="158" t="s">
-        <v>82</v>
-      </c>
-      <c r="I27" s="158" t="s">
-        <v>29</v>
-      </c>
+      <c r="D27" s="158"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="158"/>
+      <c r="H27" s="158"/>
+      <c r="I27" s="158"/>
     </row>
     <row r="28" spans="1:9" s="91" customFormat="1" ht="12.000000">
       <c r="A28" s="157" t="s">
@@ -3045,24 +2915,14 @@
       <c r="C28" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="158" t="s">
-        <v>29</v>
-      </c>
+      <c r="D28" s="158"/>
+      <c r="E28" s="158"/>
+      <c r="F28" s="158"/>
+      <c r="G28" s="158"/>
       <c r="H28" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I28" s="158" t="s">
-        <v>29</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="I28" s="158"/>
     </row>
     <row r="29" spans="1:9" s="91" customFormat="1" ht="12.000000">
       <c r="A29" s="156"/>
@@ -3113,7 +2973,7 @@
         <v>9</v>
       </c>
       <c r="H31" s="152" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="I31" s="152" t="s">
         <v>7</v>
@@ -3129,26 +2989,20 @@
       <c r="C32" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="158" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="158" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="G32" s="158" t="s">
-        <v>29</v>
-      </c>
+      <c r="D32" s="154" t="s">
+        <v>202</v>
+      </c>
+      <c r="E32" s="154" t="s">
+        <v>202</v>
+      </c>
+      <c r="F32" s="158"/>
+      <c r="G32" s="158"/>
       <c r="H32" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I32" s="158" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="91" customFormat="1" ht="12.000000">
+        <v>203</v>
+      </c>
+      <c r="I32" s="158"/>
+    </row>
+    <row r="33" spans="1:10" s="91" customFormat="1" ht="12.000000">
       <c r="A33" s="157" t="s">
         <v>92</v>
       </c>
@@ -3158,26 +3012,20 @@
       <c r="C33" s="157" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="158" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33" s="158" t="s">
-        <v>27</v>
+      <c r="D33" s="154" t="s">
+        <v>202</v>
+      </c>
+      <c r="E33" s="158"/>
+      <c r="F33" s="158"/>
+      <c r="G33" s="154" t="s">
+        <v>202</v>
       </c>
       <c r="H33" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I33" s="158" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="91" customFormat="1" ht="12.000000">
+        <v>203</v>
+      </c>
+      <c r="I33" s="158"/>
+    </row>
+    <row r="34" spans="1:10" s="91" customFormat="1" ht="12.000000">
       <c r="A34" s="157" t="s">
         <v>93</v>
       </c>
@@ -3187,26 +3035,16 @@
       <c r="C34" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="G34" s="158" t="s">
-        <v>29</v>
-      </c>
+      <c r="D34" s="158"/>
+      <c r="E34" s="158"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="158"/>
       <c r="H34" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I34" s="158" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="91" customFormat="1" ht="12.000000">
+        <v>203</v>
+      </c>
+      <c r="I34" s="158"/>
+    </row>
+    <row r="35" spans="1:10" s="91" customFormat="1" ht="12.000000">
       <c r="A35" s="157" t="s">
         <v>94</v>
       </c>
@@ -3216,26 +3054,14 @@
       <c r="C35" s="157" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="H35" s="158" t="s">
-        <v>82</v>
-      </c>
-      <c r="I35" s="158" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="91" customFormat="1" ht="12.550000" customHeight="1">
+      <c r="D35" s="158"/>
+      <c r="E35" s="158"/>
+      <c r="F35" s="158"/>
+      <c r="G35" s="158"/>
+      <c r="H35" s="158"/>
+      <c r="I35" s="158"/>
+    </row>
+    <row r="36" spans="1:10" s="91" customFormat="1" ht="12.550000" customHeight="1">
       <c r="A36" s="157" t="s">
         <v>98</v>
       </c>
@@ -3245,26 +3071,16 @@
       <c r="C36" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" s="158" t="s">
-        <v>29</v>
-      </c>
+      <c r="D36" s="158"/>
+      <c r="E36" s="158"/>
+      <c r="F36" s="158"/>
+      <c r="G36" s="158"/>
       <c r="H36" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I36" s="158" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="91" customFormat="1" ht="12.000000">
+        <v>203</v>
+      </c>
+      <c r="I36" s="158"/>
+    </row>
+    <row r="37" spans="1:10" s="91" customFormat="1" ht="12.000000">
       <c r="A37" s="156"/>
       <c r="B37" s="156"/>
       <c r="C37" s="156"/>
@@ -3275,7 +3091,7 @@
       <c r="H37" s="156"/>
       <c r="I37" s="156"/>
     </row>
-    <row r="38" spans="1:9" s="91" customFormat="1" ht="25.250000" customHeight="1">
+    <row r="38" spans="1:10" s="91" customFormat="1" ht="25.250000" customHeight="1">
       <c r="A38" s="149" t="s">
         <v>99</v>
       </c>
@@ -3290,7 +3106,7 @@
       <c r="H38" s="149"/>
       <c r="I38" s="149"/>
     </row>
-    <row r="39" spans="1:9" s="91" customFormat="1" ht="12.000000">
+    <row r="39" spans="1:10" s="91" customFormat="1" ht="12.000000">
       <c r="A39" s="151" t="s">
         <v>1</v>
       </c>
@@ -3313,283 +3129,208 @@
         <v>9</v>
       </c>
       <c r="H39" s="152" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="I39" s="152" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A40" s="159" t="s">
+    <row r="40" spans="1:10" s="91" customFormat="1" ht="12.000000">
+      <c r="A40" s="157" t="s">
+        <v>195</v>
+      </c>
+      <c r="B40" s="157" t="s">
+        <v>197</v>
+      </c>
+      <c r="C40" s="157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="158" t="s">
+        <v>202</v>
+      </c>
+      <c r="E40" s="158"/>
+      <c r="F40" s="158"/>
+      <c r="G40" s="158" t="s">
+        <v>202</v>
+      </c>
+      <c r="H40" s="158" t="s">
+        <v>203</v>
+      </c>
+      <c r="I40" s="158"/>
+      <c r="J40" s="91"/>
+    </row>
+    <row r="41" spans="1:10" s="91" customFormat="1" ht="12.000000">
+      <c r="A41" s="157" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="157" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="158"/>
+      <c r="E41" s="158" t="s">
+        <v>202</v>
+      </c>
+      <c r="F41" s="158"/>
+      <c r="G41" s="158"/>
+      <c r="H41" s="158" t="s">
+        <v>203</v>
+      </c>
+      <c r="I41" s="158"/>
+      <c r="J41" s="91"/>
+    </row>
+    <row r="42" spans="1:10" s="91" customFormat="1" ht="12.000000">
+      <c r="A42" s="157" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="157" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="158"/>
+      <c r="E42" s="158" t="s">
+        <v>202</v>
+      </c>
+      <c r="F42" s="158"/>
+      <c r="G42" s="158"/>
+      <c r="H42" s="158" t="s">
+        <v>203</v>
+      </c>
+      <c r="I42" s="158"/>
+      <c r="J42" s="91"/>
+    </row>
+    <row r="43" spans="1:10" s="91" customFormat="1" ht="12.000000">
+      <c r="A43" s="157" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="157" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="157" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="158"/>
+      <c r="E43" s="158"/>
+      <c r="F43" s="158"/>
+      <c r="G43" s="158"/>
+      <c r="H43" s="158" t="s">
+        <v>203</v>
+      </c>
+      <c r="I43" s="158"/>
+      <c r="J43" s="91"/>
+    </row>
+    <row r="44" spans="1:10" s="91" customFormat="1" ht="12.000000">
+      <c r="A44" s="157" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="157" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="157" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="158"/>
+      <c r="E44" s="158"/>
+      <c r="F44" s="158"/>
+      <c r="G44" s="158"/>
+      <c r="H44" s="158"/>
+      <c r="I44" s="158"/>
+      <c r="J44" s="91"/>
+    </row>
+    <row r="45" spans="1:10" s="91" customFormat="1" ht="12.000000">
+      <c r="A45" s="157" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" s="157" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" s="157" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" s="158"/>
+      <c r="E45" s="158"/>
+      <c r="F45" s="158"/>
+      <c r="G45" s="158"/>
+      <c r="H45" s="158" t="s">
+        <v>203</v>
+      </c>
+      <c r="I45" s="158"/>
+      <c r="J45" s="91"/>
+    </row>
+    <row r="46" spans="1:10" s="91" customFormat="1" ht="12.000000">
+      <c r="A46" s="157" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="157" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="158"/>
+      <c r="E46" s="158"/>
+      <c r="F46" s="158"/>
+      <c r="G46" s="158"/>
+      <c r="H46" s="158" t="s">
+        <v>203</v>
+      </c>
+      <c r="I46" s="158"/>
+      <c r="J46" s="91"/>
+    </row>
+    <row r="47" spans="1:10" s="91" customFormat="1" ht="12.000000">
+      <c r="A47" s="157" t="s">
+        <v>199</v>
+      </c>
+      <c r="B47" s="157" t="s">
+        <v>200</v>
+      </c>
+      <c r="C47" s="157" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" s="158"/>
+      <c r="E47" s="158"/>
+      <c r="F47" s="158"/>
+      <c r="G47" s="158"/>
+      <c r="H47" s="158" t="s">
+        <v>203</v>
+      </c>
+      <c r="I47" s="158"/>
+      <c r="J47" s="91"/>
+    </row>
+    <row r="48" spans="1:10" s="91" customFormat="1" ht="12.000000">
+      <c r="A48" s="157" t="s">
         <v>194</v>
       </c>
-      <c r="B40" s="159" t="s">
+      <c r="B48" s="157" t="s">
         <v>198</v>
       </c>
-      <c r="C40" s="159" t="s">
+      <c r="C48" s="157" t="s">
         <v>68</v>
       </c>
-      <c r="D40" s="160" t="s">
-        <v>27</v>
-      </c>
-      <c r="E40" s="160" t="s">
-        <v>29</v>
-      </c>
-      <c r="F40" s="160" t="s">
-        <v>29</v>
-      </c>
-      <c r="G40" s="160" t="s">
-        <v>27</v>
-      </c>
-      <c r="H40" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I40" s="160" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A41" s="159" t="s">
-        <v>195</v>
-      </c>
-      <c r="B41" s="159" t="s">
-        <v>197</v>
-      </c>
-      <c r="C41" s="159" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" s="160" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" s="160" t="s">
-        <v>29</v>
-      </c>
-      <c r="F41" s="160" t="s">
-        <v>29</v>
-      </c>
-      <c r="G41" s="160" t="s">
-        <v>27</v>
-      </c>
-      <c r="H41" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I41" s="160" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A42" s="159" t="s">
-        <v>102</v>
-      </c>
-      <c r="B42" s="159" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" s="159" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="160" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42" s="160" t="s">
-        <v>27</v>
-      </c>
-      <c r="F42" s="160" t="s">
-        <v>29</v>
-      </c>
-      <c r="G42" s="160" t="s">
-        <v>29</v>
-      </c>
-      <c r="H42" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I42" s="160" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A43" s="153" t="s">
-        <v>103</v>
-      </c>
-      <c r="B43" s="153" t="s">
-        <v>111</v>
-      </c>
-      <c r="C43" s="153" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="154" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" s="154" t="s">
-        <v>27</v>
-      </c>
-      <c r="F43" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G43" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H43" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I43" s="154" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A44" s="153" t="s">
-        <v>104</v>
-      </c>
-      <c r="B44" s="153" t="s">
-        <v>113</v>
-      </c>
-      <c r="C44" s="153" t="s">
-        <v>108</v>
-      </c>
-      <c r="D44" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E44" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F44" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G44" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H44" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I44" s="154" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A45" s="153" t="s">
-        <v>105</v>
-      </c>
-      <c r="B45" s="153" t="s">
-        <v>114</v>
-      </c>
-      <c r="C45" s="153" t="s">
-        <v>108</v>
-      </c>
-      <c r="D45" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E45" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F45" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G45" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H45" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I45" s="154" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A46" s="153" t="s">
-        <v>106</v>
-      </c>
-      <c r="B46" s="153" t="s">
-        <v>115</v>
-      </c>
-      <c r="C46" s="153" t="s">
-        <v>109</v>
-      </c>
-      <c r="D46" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E46" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F46" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G46" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H46" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I46" s="154" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A47" s="153" t="s">
-        <v>107</v>
-      </c>
-      <c r="B47" s="153" t="s">
-        <v>116</v>
-      </c>
-      <c r="C47" s="153" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E47" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F47" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G47" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H47" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I47" s="154" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A48" s="153" t="s">
-        <v>199</v>
-      </c>
-      <c r="B48" s="153" t="s">
-        <v>200</v>
-      </c>
-      <c r="C48" s="153" t="s">
-        <v>38</v>
-      </c>
-      <c r="D48" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E48" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F48" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G48" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H48" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I48" s="154" t="s">
-        <v>29</v>
-      </c>
+      <c r="D48" s="157"/>
+      <c r="E48" s="157"/>
+      <c r="F48" s="157"/>
+      <c r="G48" s="157"/>
+      <c r="H48" s="158" t="s">
+        <v>203</v>
+      </c>
+      <c r="I48" s="157"/>
+      <c r="J48" s="91"/>
     </row>
     <row r="49" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A49" s="156"/>
-      <c r="B49" s="156"/>
-      <c r="C49" s="156"/>
-      <c r="D49" s="156"/>
-      <c r="E49" s="156"/>
-      <c r="F49" s="156"/>
-      <c r="G49" s="156"/>
-      <c r="H49" s="156"/>
-      <c r="I49" s="156"/>
+      <c r="A49" s="91"/>
+      <c r="B49" s="91"/>
+      <c r="C49" s="91"/>
+      <c r="D49" s="91"/>
+      <c r="E49" s="91"/>
+      <c r="F49" s="91"/>
+      <c r="G49" s="91"/>
+      <c r="H49" s="91"/>
+      <c r="I49" s="91"/>
     </row>
     <row r="50" spans="1:9" s="91" customFormat="1" ht="28.050000" customHeight="1">
       <c r="A50" s="149" t="s">
@@ -3636,989 +3377,664 @@
       </c>
     </row>
     <row r="52" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A52" s="159" t="s">
-        <v>194</v>
-      </c>
-      <c r="B52" s="159" t="s">
-        <v>124</v>
-      </c>
-      <c r="C52" s="159" t="s">
+      <c r="A52" s="153" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" s="153" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" s="153" t="s">
         <v>68</v>
       </c>
-      <c r="D52" s="154" t="s">
-        <v>27</v>
-      </c>
-      <c r="E52" s="154" t="s">
-        <v>27</v>
-      </c>
-      <c r="F52" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G52" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H52" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I52" s="154" t="s">
-        <v>29</v>
-      </c>
+      <c r="D52" s="158" t="s">
+        <v>202</v>
+      </c>
+      <c r="E52" s="158" t="s">
+        <v>202</v>
+      </c>
+      <c r="F52" s="154"/>
+      <c r="G52" s="158" t="s">
+        <v>202</v>
+      </c>
+      <c r="H52" s="158" t="s">
+        <v>203</v>
+      </c>
+      <c r="I52" s="154"/>
     </row>
     <row r="53" spans="1:9" s="91" customFormat="1" ht="12.000000">
       <c r="A53" s="153" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B53" s="153" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C53" s="153" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53" s="154" t="s">
-        <v>27</v>
-      </c>
-      <c r="E53" s="154" t="s">
-        <v>27</v>
-      </c>
-      <c r="F53" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G53" s="154" t="s">
-        <v>27</v>
-      </c>
-      <c r="H53" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I53" s="154" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D53" s="154"/>
+      <c r="E53" s="154"/>
+      <c r="F53" s="154"/>
+      <c r="G53" s="154"/>
+      <c r="H53" s="158" t="s">
+        <v>203</v>
+      </c>
+      <c r="I53" s="154"/>
     </row>
     <row r="54" spans="1:9" s="91" customFormat="1" ht="12.000000">
       <c r="A54" s="153" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B54" s="153" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="C54" s="153" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54" s="154"/>
+      <c r="E54" s="154"/>
+      <c r="F54" s="154"/>
+      <c r="G54" s="154"/>
+      <c r="H54" s="154"/>
+      <c r="I54" s="154"/>
+    </row>
+    <row r="55" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A55" s="91"/>
+      <c r="B55" s="91"/>
+      <c r="C55" s="91"/>
+      <c r="D55" s="91"/>
+      <c r="E55" s="91"/>
+      <c r="F55" s="91"/>
+      <c r="G55" s="91"/>
+      <c r="H55" s="91"/>
+      <c r="I55" s="91"/>
+    </row>
+    <row r="56" spans="1:9" s="91" customFormat="1" ht="23.250000" customHeight="1">
+      <c r="A56" s="149" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56" s="149"/>
+      <c r="C56" s="149"/>
+      <c r="D56" s="150" t="s">
+        <v>141</v>
+      </c>
+      <c r="E56" s="150"/>
+      <c r="F56" s="150"/>
+      <c r="G56" s="149"/>
+      <c r="H56" s="149"/>
+      <c r="I56" s="149"/>
+    </row>
+    <row r="57" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A57" s="151" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="151" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="151" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="151" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="151" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="151" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="152" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" s="152" t="s">
+        <v>28</v>
+      </c>
+      <c r="I57" s="152" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A58" s="153" t="s">
+        <v>143</v>
+      </c>
+      <c r="B58" s="153" t="s">
+        <v>205</v>
+      </c>
+      <c r="C58" s="153" t="s">
+        <v>151</v>
+      </c>
+      <c r="D58" s="158" t="s">
+        <v>202</v>
+      </c>
+      <c r="E58" s="154"/>
+      <c r="F58" s="154"/>
+      <c r="G58" s="158" t="s">
+        <v>202</v>
+      </c>
+      <c r="H58" s="158" t="s">
+        <v>203</v>
+      </c>
+      <c r="I58" s="154"/>
+    </row>
+    <row r="59" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A59" s="153" t="s">
+        <v>206</v>
+      </c>
+      <c r="B59" s="153" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="154" t="s">
-        <v>27</v>
-      </c>
-      <c r="E54" s="154" t="s">
-        <v>27</v>
-      </c>
-      <c r="F54" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G54" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H54" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I54" s="154" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A55" s="153" t="s">
-        <v>127</v>
-      </c>
-      <c r="B55" s="153" t="s">
-        <v>111</v>
-      </c>
-      <c r="C55" s="153" t="s">
+      <c r="D59" s="154"/>
+      <c r="E59" s="158" t="s">
+        <v>202</v>
+      </c>
+      <c r="F59" s="154"/>
+      <c r="G59" s="154"/>
+      <c r="H59" s="158" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A60" s="153" t="s">
+        <v>207</v>
+      </c>
+      <c r="B60" s="153" t="s">
+        <v>156</v>
+      </c>
+      <c r="C60" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="D55" s="154" t="s">
-        <v>27</v>
-      </c>
-      <c r="E55" s="154" t="s">
-        <v>27</v>
-      </c>
-      <c r="F55" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G55" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H55" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I55" s="154" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A56" s="153" t="s">
-        <v>122</v>
-      </c>
-      <c r="B56" s="153" t="s">
-        <v>128</v>
-      </c>
-      <c r="C56" s="153" t="s">
+      <c r="D60" s="154"/>
+      <c r="E60" s="158" t="s">
+        <v>202</v>
+      </c>
+      <c r="F60" s="154"/>
+      <c r="G60" s="154"/>
+      <c r="H60" s="154"/>
+      <c r="I60" s="154"/>
+    </row>
+    <row r="61" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A61" s="153" t="s">
+        <v>145</v>
+      </c>
+      <c r="B61" s="153" t="s">
+        <v>158</v>
+      </c>
+      <c r="C61" s="153" t="s">
+        <v>152</v>
+      </c>
+      <c r="D61" s="154"/>
+      <c r="E61" s="154"/>
+      <c r="F61" s="154"/>
+      <c r="G61" s="154"/>
+      <c r="H61" s="158" t="s">
+        <v>203</v>
+      </c>
+      <c r="I61" s="154"/>
+    </row>
+    <row r="62" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A62" s="153" t="s">
+        <v>146</v>
+      </c>
+      <c r="B62" s="153" t="s">
+        <v>159</v>
+      </c>
+      <c r="C62" s="153" t="s">
+        <v>81</v>
+      </c>
+      <c r="D62" s="154"/>
+      <c r="E62" s="154"/>
+      <c r="F62" s="154"/>
+      <c r="G62" s="154"/>
+      <c r="H62" s="154"/>
+      <c r="I62" s="154"/>
+    </row>
+    <row r="63" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A63" s="153" t="s">
+        <v>147</v>
+      </c>
+      <c r="B63" s="153" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63" s="153" t="s">
+        <v>81</v>
+      </c>
+      <c r="D63" s="154"/>
+      <c r="E63" s="154"/>
+      <c r="F63" s="154"/>
+      <c r="G63" s="154"/>
+      <c r="H63" s="158" t="s">
+        <v>203</v>
+      </c>
+      <c r="I63" s="154"/>
+    </row>
+    <row r="64" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A64" s="153" t="s">
+        <v>148</v>
+      </c>
+      <c r="B64" s="153" t="s">
+        <v>161</v>
+      </c>
+      <c r="C64" s="153" t="s">
+        <v>153</v>
+      </c>
+      <c r="D64" s="154"/>
+      <c r="E64" s="154"/>
+      <c r="F64" s="154"/>
+      <c r="G64" s="154"/>
+      <c r="H64" s="158" t="s">
+        <v>203</v>
+      </c>
+      <c r="I64" s="154"/>
+    </row>
+    <row r="65" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A65" s="153" t="s">
+        <v>149</v>
+      </c>
+      <c r="B65" s="153" t="s">
+        <v>162</v>
+      </c>
+      <c r="C65" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="D56" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E56" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F56" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G56" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H56" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I56" s="154" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A57" s="153" t="s">
-        <v>123</v>
-      </c>
-      <c r="B57" s="153" t="s">
-        <v>129</v>
-      </c>
-      <c r="C57" s="153" t="s">
-        <v>81</v>
-      </c>
-      <c r="D57" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E57" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F57" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G57" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H57" s="154" t="s">
-        <v>82</v>
-      </c>
-      <c r="I57" s="154" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A58" s="156"/>
-      <c r="B58" s="156"/>
-      <c r="C58" s="156"/>
-      <c r="D58" s="156"/>
-      <c r="E58" s="156"/>
-      <c r="F58" s="156"/>
-      <c r="G58" s="156"/>
-      <c r="H58" s="156"/>
-      <c r="I58" s="156"/>
-    </row>
-    <row r="59" spans="1:9" s="91" customFormat="1" ht="27.100000" customHeight="1">
-      <c r="A59" s="149" t="s">
-        <v>130</v>
-      </c>
-      <c r="B59" s="149"/>
-      <c r="C59" s="149"/>
-      <c r="D59" s="150" t="s">
-        <v>131</v>
-      </c>
-      <c r="E59" s="150"/>
-      <c r="F59" s="150"/>
-      <c r="G59" s="149"/>
-      <c r="H59" s="149"/>
-      <c r="I59" s="149"/>
-    </row>
-    <row r="60" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A60" s="151" t="s">
+      <c r="D65" s="154"/>
+      <c r="E65" s="154"/>
+      <c r="F65" s="154"/>
+      <c r="G65" s="154"/>
+      <c r="H65" s="158" t="s">
+        <v>203</v>
+      </c>
+      <c r="I65" s="154"/>
+    </row>
+    <row r="66" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A66" s="153" t="s">
+        <v>150</v>
+      </c>
+      <c r="B66" s="153" t="s">
+        <v>163</v>
+      </c>
+      <c r="C66" s="153" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" s="154"/>
+      <c r="E66" s="154"/>
+      <c r="F66" s="154"/>
+      <c r="G66" s="154"/>
+      <c r="H66" s="158" t="s">
+        <v>203</v>
+      </c>
+      <c r="I66" s="154"/>
+    </row>
+    <row r="67" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A67" s="156"/>
+      <c r="B67" s="156"/>
+      <c r="C67" s="156"/>
+      <c r="D67" s="156"/>
+      <c r="E67" s="156"/>
+      <c r="F67" s="156"/>
+      <c r="G67" s="156"/>
+      <c r="H67" s="156"/>
+      <c r="I67" s="156"/>
+    </row>
+    <row r="68" spans="1:9" s="91" customFormat="1" ht="24.750000" customHeight="1">
+      <c r="A68" s="149" t="s">
+        <v>164</v>
+      </c>
+      <c r="B68" s="149"/>
+      <c r="C68" s="149"/>
+      <c r="D68" s="150" t="s">
+        <v>208</v>
+      </c>
+      <c r="E68" s="150"/>
+      <c r="F68" s="150"/>
+      <c r="G68" s="149"/>
+      <c r="H68" s="149"/>
+      <c r="I68" s="149"/>
+    </row>
+    <row r="69" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A69" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="151" t="s">
+      <c r="B69" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="151" t="s">
+      <c r="C69" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="D60" s="151" t="s">
+      <c r="D69" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="E60" s="151" t="s">
+      <c r="E69" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="F60" s="151" t="s">
+      <c r="F69" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="G60" s="152" t="s">
+      <c r="G69" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="H60" s="152" t="s">
+      <c r="H69" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="I60" s="152" t="s">
+      <c r="I69" s="152" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A61" s="157" t="s">
-        <v>132</v>
-      </c>
-      <c r="B61" s="157" t="s">
-        <v>136</v>
-      </c>
-      <c r="C61" s="157" t="s">
-        <v>21</v>
-      </c>
-      <c r="D61" s="158" t="s">
-        <v>27</v>
-      </c>
-      <c r="E61" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="F61" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="G61" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="H61" s="158" t="s">
-        <v>30</v>
-      </c>
-      <c r="I61" s="158" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A62" s="157" t="s">
-        <v>133</v>
-      </c>
-      <c r="B62" s="157" t="s">
-        <v>137</v>
-      </c>
-      <c r="C62" s="157" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="E62" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="F62" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="G62" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="H62" s="158" t="s">
-        <v>30</v>
-      </c>
-      <c r="I62" s="158" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A63" s="157" t="s">
-        <v>134</v>
-      </c>
-      <c r="B63" s="157" t="s">
-        <v>138</v>
-      </c>
-      <c r="C63" s="157" t="s">
-        <v>24</v>
-      </c>
-      <c r="D63" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="E63" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="F63" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="G63" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="H63" s="158" t="s">
-        <v>30</v>
-      </c>
-      <c r="I63" s="158" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A64" s="157" t="s">
-        <v>135</v>
-      </c>
-      <c r="B64" s="157" t="s">
-        <v>139</v>
-      </c>
-      <c r="C64" s="157" t="s">
-        <v>25</v>
-      </c>
-      <c r="D64" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="E64" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="F64" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="G64" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="H64" s="158" t="s">
-        <v>30</v>
-      </c>
-      <c r="I64" s="158" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A65" s="156"/>
-      <c r="B65" s="156"/>
-      <c r="C65" s="156"/>
-      <c r="D65" s="156"/>
-      <c r="E65" s="156"/>
-      <c r="F65" s="156"/>
-      <c r="G65" s="156"/>
-      <c r="H65" s="156"/>
-      <c r="I65" s="156"/>
-    </row>
-    <row r="66" spans="1:9" s="91" customFormat="1" ht="29.000000" customHeight="1">
-      <c r="A66" s="149" t="s">
-        <v>140</v>
-      </c>
-      <c r="B66" s="149"/>
-      <c r="C66" s="149"/>
-      <c r="D66" s="150" t="s">
-        <v>141</v>
-      </c>
-      <c r="E66" s="150"/>
-      <c r="F66" s="150"/>
-      <c r="G66" s="149"/>
-      <c r="H66" s="149"/>
-      <c r="I66" s="149"/>
-    </row>
-    <row r="67" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A67" s="151" t="s">
-        <v>1</v>
-      </c>
-      <c r="B67" s="151" t="s">
-        <v>2</v>
-      </c>
-      <c r="C67" s="151" t="s">
-        <v>3</v>
-      </c>
-      <c r="D67" s="151" t="s">
-        <v>4</v>
-      </c>
-      <c r="E67" s="151" t="s">
-        <v>5</v>
-      </c>
-      <c r="F67" s="151" t="s">
-        <v>6</v>
-      </c>
-      <c r="G67" s="152" t="s">
-        <v>9</v>
-      </c>
-      <c r="H67" s="152" t="s">
-        <v>28</v>
-      </c>
-      <c r="I67" s="152" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A68" s="153" t="s">
-        <v>142</v>
-      </c>
-      <c r="B68" s="153" t="s">
-        <v>154</v>
-      </c>
-      <c r="C68" s="153" t="s">
-        <v>21</v>
-      </c>
-      <c r="D68" s="154" t="s">
-        <v>27</v>
-      </c>
-      <c r="E68" s="154" t="s">
-        <v>27</v>
-      </c>
-      <c r="F68" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G68" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H68" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I68" s="154" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A69" s="153" t="s">
-        <v>143</v>
-      </c>
-      <c r="B69" s="153" t="s">
-        <v>155</v>
-      </c>
-      <c r="C69" s="153" t="s">
-        <v>151</v>
-      </c>
-      <c r="D69" s="154" t="s">
-        <v>27</v>
-      </c>
-      <c r="E69" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F69" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G69" s="154" t="s">
-        <v>27</v>
-      </c>
-      <c r="H69" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I69" s="154" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="91" customFormat="1" ht="12.000000">
       <c r="A70" s="153" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="B70" s="153" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="C70" s="153" t="s">
-        <v>21</v>
-      </c>
-      <c r="D70" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E70" s="154" t="s">
-        <v>27</v>
-      </c>
-      <c r="F70" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G70" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H70" s="154" t="s">
-        <v>82</v>
-      </c>
-      <c r="I70" s="154" t="s">
-        <v>29</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="D70" s="158" t="s">
+        <v>202</v>
+      </c>
+      <c r="E70" s="154"/>
+      <c r="F70" s="154"/>
+      <c r="G70" s="154"/>
+      <c r="H70" s="158" t="s">
+        <v>203</v>
+      </c>
+      <c r="I70" s="154"/>
     </row>
     <row r="71" spans="1:9" s="91" customFormat="1" ht="12.000000">
       <c r="A71" s="153" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="B71" s="153" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="C71" s="153" t="s">
-        <v>152</v>
-      </c>
-      <c r="D71" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E71" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F71" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G71" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H71" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I71" s="154" t="s">
-        <v>29</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="D71" s="154"/>
+      <c r="E71" s="154"/>
+      <c r="F71" s="154"/>
+      <c r="G71" s="154"/>
+      <c r="H71" s="158" t="s">
+        <v>203</v>
+      </c>
+      <c r="I71" s="154"/>
     </row>
     <row r="72" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A72" s="153" t="s">
-        <v>146</v>
-      </c>
-      <c r="B72" s="153" t="s">
-        <v>159</v>
-      </c>
-      <c r="C72" s="153" t="s">
-        <v>81</v>
-      </c>
-      <c r="D72" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E72" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F72" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G72" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H72" s="154" t="s">
-        <v>82</v>
-      </c>
-      <c r="I72" s="154" t="s">
-        <v>29</v>
-      </c>
+      <c r="A72" s="0"/>
+      <c r="B72" s="0"/>
+      <c r="C72" s="0"/>
+      <c r="D72" s="0"/>
+      <c r="E72" s="0"/>
+      <c r="F72" s="0"/>
+      <c r="G72" s="0"/>
+      <c r="H72" s="0"/>
     </row>
     <row r="73" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A73" s="153" t="s">
-        <v>147</v>
-      </c>
-      <c r="B73" s="153" t="s">
-        <v>160</v>
-      </c>
-      <c r="C73" s="153" t="s">
-        <v>81</v>
-      </c>
-      <c r="D73" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E73" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F73" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G73" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H73" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I73" s="154" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A74" s="153" t="s">
-        <v>148</v>
-      </c>
-      <c r="B74" s="153" t="s">
-        <v>161</v>
-      </c>
-      <c r="C74" s="153" t="s">
-        <v>153</v>
-      </c>
-      <c r="D74" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E74" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F74" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G74" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H74" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I74" s="154" t="s">
-        <v>29</v>
-      </c>
+      <c r="A73" s="0"/>
+      <c r="B73" s="0"/>
+      <c r="C73" s="0"/>
+      <c r="D73" s="0"/>
+      <c r="E73" s="0"/>
+      <c r="F73" s="0"/>
+      <c r="G73" s="0"/>
+      <c r="H73" s="0"/>
+    </row>
+    <row r="74" spans="1:9" s="91" customFormat="1" ht="37.000000" customHeight="1">
+      <c r="A74" s="149" t="s">
+        <v>171</v>
+      </c>
+      <c r="B74" s="149"/>
+      <c r="C74" s="149"/>
+      <c r="D74" s="150" t="s">
+        <v>172</v>
+      </c>
+      <c r="E74" s="150"/>
+      <c r="F74" s="150"/>
+      <c r="G74" s="149"/>
+      <c r="H74" s="149"/>
+      <c r="I74" s="149"/>
     </row>
     <row r="75" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A75" s="153" t="s">
-        <v>149</v>
-      </c>
-      <c r="B75" s="153" t="s">
-        <v>162</v>
-      </c>
-      <c r="C75" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="D75" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E75" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F75" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G75" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H75" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I75" s="154" t="s">
-        <v>29</v>
+      <c r="A75" s="151" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="151" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="151" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="151" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="151" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="151" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="152" t="s">
+        <v>9</v>
+      </c>
+      <c r="H75" s="152" t="s">
+        <v>28</v>
+      </c>
+      <c r="I75" s="152" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="91" customFormat="1" ht="12.000000">
       <c r="A76" s="153" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
       <c r="B76" s="153" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C76" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="D76" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E76" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F76" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G76" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H76" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I76" s="154" t="s">
-        <v>29</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D76" s="158" t="s">
+        <v>202</v>
+      </c>
+      <c r="E76" s="154"/>
+      <c r="F76" s="154"/>
+      <c r="G76" s="158" t="s">
+        <v>202</v>
+      </c>
+      <c r="H76" s="158" t="s">
+        <v>203</v>
+      </c>
+      <c r="I76" s="154"/>
     </row>
     <row r="77" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A77" s="156"/>
-      <c r="B77" s="156"/>
-      <c r="C77" s="156"/>
-      <c r="D77" s="156"/>
-      <c r="E77" s="156"/>
-      <c r="F77" s="156"/>
-      <c r="G77" s="156"/>
-      <c r="H77" s="156"/>
-      <c r="I77" s="156"/>
-    </row>
-    <row r="78" spans="1:9" s="91" customFormat="1" ht="24.800000" customHeight="1">
-      <c r="A78" s="149" t="s">
-        <v>164</v>
-      </c>
-      <c r="B78" s="149"/>
-      <c r="C78" s="149"/>
-      <c r="D78" s="150" t="s">
-        <v>165</v>
-      </c>
-      <c r="E78" s="150"/>
-      <c r="F78" s="150"/>
-      <c r="G78" s="149"/>
-      <c r="H78" s="149"/>
-      <c r="I78" s="149"/>
+      <c r="A77" s="153" t="s">
+        <v>210</v>
+      </c>
+      <c r="B77" s="153" t="s">
+        <v>212</v>
+      </c>
+      <c r="C77" s="153" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="154"/>
+      <c r="E77" s="158" t="s">
+        <v>202</v>
+      </c>
+      <c r="F77" s="154"/>
+      <c r="G77" s="154"/>
+      <c r="H77" s="158" t="s">
+        <v>203</v>
+      </c>
+      <c r="I77" s="154"/>
+    </row>
+    <row r="78" spans="1:9" s="91" customFormat="1" ht="12.000000">
+      <c r="A78" s="153" t="s">
+        <v>175</v>
+      </c>
+      <c r="B78" s="153" t="s">
+        <v>179</v>
+      </c>
+      <c r="C78" s="153" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="154"/>
+      <c r="E78" s="154"/>
+      <c r="F78" s="154"/>
+      <c r="G78" s="154"/>
+      <c r="H78" s="158" t="s">
+        <v>203</v>
+      </c>
+      <c r="I78" s="154"/>
     </row>
     <row r="79" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A79" s="151" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="151" t="s">
-        <v>2</v>
-      </c>
-      <c r="C79" s="151" t="s">
-        <v>3</v>
-      </c>
-      <c r="D79" s="151" t="s">
-        <v>4</v>
-      </c>
-      <c r="E79" s="151" t="s">
-        <v>5</v>
-      </c>
-      <c r="F79" s="151" t="s">
-        <v>6</v>
-      </c>
-      <c r="G79" s="152" t="s">
-        <v>9</v>
-      </c>
-      <c r="H79" s="152" t="s">
-        <v>28</v>
-      </c>
-      <c r="I79" s="152" t="s">
-        <v>7</v>
-      </c>
+      <c r="A79" s="153" t="s">
+        <v>176</v>
+      </c>
+      <c r="B79" s="153" t="s">
+        <v>180</v>
+      </c>
+      <c r="C79" s="153" t="s">
+        <v>108</v>
+      </c>
+      <c r="D79" s="154"/>
+      <c r="E79" s="154"/>
+      <c r="F79" s="154"/>
+      <c r="G79" s="154"/>
+      <c r="H79" s="158" t="s">
+        <v>203</v>
+      </c>
+      <c r="I79" s="154"/>
     </row>
     <row r="80" spans="1:9" s="91" customFormat="1" ht="12.000000">
       <c r="A80" s="153" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="B80" s="153" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="C80" s="153" t="s">
-        <v>109</v>
-      </c>
-      <c r="D80" s="154" t="s">
-        <v>27</v>
-      </c>
-      <c r="E80" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F80" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G80" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H80" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I80" s="154" t="s">
-        <v>29</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D80" s="154"/>
+      <c r="E80" s="154"/>
+      <c r="F80" s="154"/>
+      <c r="G80" s="154"/>
+      <c r="H80" s="158" t="s">
+        <v>203</v>
+      </c>
+      <c r="I80" s="154"/>
     </row>
     <row r="81" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A81" s="153" t="s">
-        <v>167</v>
-      </c>
-      <c r="B81" s="153" t="s">
-        <v>170</v>
-      </c>
-      <c r="C81" s="153" t="s">
-        <v>168</v>
-      </c>
-      <c r="D81" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E81" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F81" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G81" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H81" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I81" s="154" t="s">
-        <v>29</v>
-      </c>
+      <c r="A81" s="91"/>
+      <c r="B81" s="91"/>
+      <c r="C81" s="91"/>
+      <c r="D81" s="91"/>
+      <c r="E81" s="91"/>
+      <c r="F81" s="91"/>
+      <c r="G81" s="91"/>
+      <c r="H81" s="91"/>
+      <c r="I81" s="91"/>
     </row>
     <row r="82" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A82" s="0"/>
-      <c r="B82" s="0"/>
-      <c r="C82" s="0"/>
-      <c r="D82" s="0"/>
-      <c r="E82" s="0"/>
-      <c r="F82" s="0"/>
-      <c r="G82" s="0"/>
-      <c r="H82" s="0"/>
-      <c r="I82" s="0"/>
+      <c r="A82" s="91"/>
+      <c r="B82" s="91"/>
+      <c r="C82" s="91"/>
+      <c r="D82" s="91"/>
+      <c r="E82" s="91"/>
+      <c r="F82" s="91"/>
+      <c r="G82" s="91"/>
+      <c r="H82" s="91"/>
+      <c r="I82" s="91"/>
     </row>
     <row r="83" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A83" s="0"/>
-      <c r="B83" s="0"/>
-      <c r="C83" s="0"/>
-      <c r="D83" s="0"/>
-      <c r="E83" s="0"/>
-      <c r="F83" s="0"/>
-      <c r="G83" s="0"/>
-      <c r="H83" s="0"/>
-      <c r="I83" s="0"/>
+      <c r="A83" s="91"/>
+      <c r="B83" s="91"/>
+      <c r="C83" s="91"/>
+      <c r="D83" s="91"/>
+      <c r="E83" s="91"/>
+      <c r="F83" s="91"/>
+      <c r="G83" s="91"/>
+      <c r="H83" s="91"/>
+      <c r="I83" s="91"/>
     </row>
     <row r="84" spans="1:9" s="91" customFormat="1" ht="25.250000" customHeight="1">
-      <c r="A84" s="149" t="s">
-        <v>171</v>
-      </c>
-      <c r="B84" s="149"/>
-      <c r="C84" s="149"/>
-      <c r="D84" s="150" t="s">
-        <v>172</v>
-      </c>
-      <c r="E84" s="150"/>
-      <c r="F84" s="150"/>
-      <c r="G84" s="149"/>
-      <c r="H84" s="149"/>
-      <c r="I84" s="149"/>
+      <c r="A84" s="91"/>
+      <c r="B84" s="91"/>
+      <c r="C84" s="91"/>
+      <c r="D84" s="91"/>
+      <c r="E84" s="91"/>
+      <c r="F84" s="91"/>
+      <c r="G84" s="91"/>
+      <c r="H84" s="91"/>
+      <c r="I84" s="91"/>
     </row>
     <row r="85" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A85" s="151" t="s">
-        <v>1</v>
-      </c>
-      <c r="B85" s="151" t="s">
-        <v>2</v>
-      </c>
-      <c r="C85" s="151" t="s">
-        <v>3</v>
-      </c>
-      <c r="D85" s="151" t="s">
-        <v>4</v>
-      </c>
-      <c r="E85" s="151" t="s">
-        <v>5</v>
-      </c>
-      <c r="F85" s="151" t="s">
-        <v>6</v>
-      </c>
-      <c r="G85" s="152" t="s">
-        <v>9</v>
-      </c>
-      <c r="H85" s="152" t="s">
-        <v>28</v>
-      </c>
-      <c r="I85" s="152" t="s">
-        <v>7</v>
-      </c>
+      <c r="A85" s="91"/>
+      <c r="B85" s="91"/>
+      <c r="C85" s="91"/>
+      <c r="D85" s="91"/>
+      <c r="E85" s="91"/>
+      <c r="F85" s="91"/>
+      <c r="G85" s="91"/>
+      <c r="H85" s="91"/>
+      <c r="I85" s="91"/>
     </row>
     <row r="86" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A86" s="153" t="s">
-        <v>173</v>
-      </c>
-      <c r="B86" s="153" t="s">
-        <v>16</v>
-      </c>
-      <c r="C86" s="153" t="s">
-        <v>21</v>
-      </c>
-      <c r="D86" s="154" t="s">
-        <v>27</v>
-      </c>
-      <c r="E86" s="154" t="s">
-        <v>27</v>
-      </c>
-      <c r="F86" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G86" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H86" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I86" s="154" t="s">
-        <v>29</v>
-      </c>
+      <c r="A86" s="91"/>
+      <c r="B86" s="91"/>
+      <c r="C86" s="91"/>
+      <c r="D86" s="91"/>
+      <c r="E86" s="91"/>
+      <c r="F86" s="91"/>
+      <c r="G86" s="91"/>
+      <c r="H86" s="91"/>
+      <c r="I86" s="91"/>
     </row>
     <row r="87" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A87" s="153" t="s">
-        <v>174</v>
-      </c>
-      <c r="B87" s="153" t="s">
-        <v>178</v>
-      </c>
-      <c r="C87" s="153" t="s">
-        <v>68</v>
-      </c>
-      <c r="D87" s="154" t="s">
-        <v>27</v>
-      </c>
-      <c r="E87" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F87" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G87" s="154" t="s">
-        <v>27</v>
-      </c>
-      <c r="H87" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I87" s="154" t="s">
-        <v>29</v>
-      </c>
+      <c r="A87" s="91"/>
+      <c r="B87" s="91"/>
+      <c r="C87" s="91"/>
+      <c r="D87" s="91"/>
+      <c r="E87" s="91"/>
+      <c r="F87" s="91"/>
+      <c r="G87" s="91"/>
+      <c r="H87" s="91"/>
+      <c r="I87" s="91"/>
     </row>
     <row r="88" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A88" s="153" t="s">
-        <v>175</v>
-      </c>
-      <c r="B88" s="153" t="s">
-        <v>179</v>
-      </c>
-      <c r="C88" s="153" t="s">
-        <v>25</v>
-      </c>
-      <c r="D88" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E88" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F88" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G88" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H88" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I88" s="154" t="s">
-        <v>29</v>
-      </c>
+      <c r="A88" s="91"/>
+      <c r="B88" s="91"/>
+      <c r="C88" s="91"/>
+      <c r="D88" s="91"/>
+      <c r="E88" s="91"/>
+      <c r="F88" s="91"/>
+      <c r="G88" s="91"/>
+      <c r="H88" s="91"/>
+      <c r="I88" s="91"/>
     </row>
     <row r="89" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A89" s="153" t="s">
-        <v>176</v>
-      </c>
-      <c r="B89" s="153" t="s">
-        <v>180</v>
-      </c>
-      <c r="C89" s="153" t="s">
-        <v>108</v>
-      </c>
-      <c r="D89" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E89" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F89" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G89" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H89" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I89" s="154" t="s">
-        <v>29</v>
-      </c>
+      <c r="A89" s="91"/>
+      <c r="B89" s="91"/>
+      <c r="C89" s="91"/>
+      <c r="D89" s="91"/>
+      <c r="E89" s="91"/>
+      <c r="F89" s="91"/>
+      <c r="G89" s="91"/>
+      <c r="H89" s="91"/>
+      <c r="I89" s="91"/>
     </row>
     <row r="90" spans="1:9" s="91" customFormat="1" ht="12.000000">
-      <c r="A90" s="153" t="s">
-        <v>177</v>
-      </c>
-      <c r="B90" s="153" t="s">
-        <v>181</v>
-      </c>
-      <c r="C90" s="153" t="s">
-        <v>38</v>
-      </c>
-      <c r="D90" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E90" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F90" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G90" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H90" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="I90" s="154" t="s">
-        <v>29</v>
-      </c>
+      <c r="A90" s="91"/>
+      <c r="B90" s="91"/>
+      <c r="C90" s="91"/>
+      <c r="D90" s="91"/>
+      <c r="E90" s="91"/>
+      <c r="F90" s="91"/>
+      <c r="G90" s="91"/>
+      <c r="H90" s="91"/>
+      <c r="I90" s="91"/>
     </row>
     <row r="91" s="91" customFormat="1" ht="12.000000" customHeight="1"/>
     <row r="92" s="91" customFormat="1" ht="12.000000" customHeight="1"/>
@@ -4778,7 +4194,7 @@
       <c r="I107" s="91"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="12">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:I3"/>
@@ -4788,10 +4204,9 @@
     <mergeCell ref="D30:I30"/>
     <mergeCell ref="D38:I38"/>
     <mergeCell ref="D50:I50"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="D66:I66"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D56:I56"/>
+    <mergeCell ref="D68:I68"/>
+    <mergeCell ref="D74:I74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>

--- a/Project_Design/ERD,테이블정의서/1차 테이블정의서.xlsx
+++ b/Project_Design/ERD,테이블정의서/1차 테이블정의서.xlsx
@@ -4,15 +4,13 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.121.46349"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="530" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="520" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="테이블 정의서" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$75</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'테이블 정의서'!$A$1:$I$75</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -2504,8 +2502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScaleSheetLayoutView="140" workbookViewId="0">
-      <selection activeCell="J79" sqref="J79"/>
+    <sheetView topLeftCell="B63" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScaleSheetLayoutView="140" workbookViewId="0">
+      <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.000000" customHeight="1"/>
@@ -2513,8 +2511,7 @@
     <col min="1" max="1" width="27.00499916" customWidth="1" outlineLevel="0"/>
     <col min="2" max="2" width="29.75499916" customWidth="1" outlineLevel="0"/>
     <col min="3" max="3" width="15.13000011" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" width="3.50500011" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" width="3.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="5" width="3.50500011" customWidth="1" outlineLevel="0"/>
     <col min="6" max="6" width="5.38000011" customWidth="1" outlineLevel="0"/>
     <col min="7" max="7" width="13.63000011" customWidth="1" outlineLevel="0"/>
     <col min="8" max="8" width="5.50500011" customWidth="1" outlineLevel="0"/>
@@ -3260,7 +3257,7 @@
       </c>
       <c r="I40" s="157"/>
     </row>
-    <row r="41" s="91" customFormat="1" ht="14.400000"/>
+    <row r="41" s="91" customFormat="1" ht="14.400000" customHeight="1"/>
     <row r="42" s="91" customFormat="1" ht="12.000000" customHeight="1"/>
     <row r="43" spans="1:9" s="91" customFormat="1" ht="30.000000" customHeight="1">
       <c r="A43" s="149" t="s">
@@ -3588,7 +3585,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="60" s="91" customFormat="1" ht="14.400000"/>
+    <row r="60" s="91" customFormat="1" ht="14.400000" customHeight="1"/>
     <row r="61" spans="1:9" s="91" customFormat="1">
       <c r="A61" s="156"/>
       <c r="B61" s="156"/>
@@ -3905,17 +3902,7 @@
       <c r="H78" s="0"/>
       <c r="I78" s="0"/>
     </row>
-    <row r="79" spans="1:9" s="0" customFormat="1" ht="16.500000">
-      <c r="A79" s="0"/>
-      <c r="B79" s="0"/>
-      <c r="C79" s="0"/>
-      <c r="D79" s="0"/>
-      <c r="E79" s="0"/>
-      <c r="F79" s="0"/>
-      <c r="G79" s="0"/>
-      <c r="H79" s="0"/>
-      <c r="I79" s="0"/>
-    </row>
+    <row r="79" s="0" customFormat="1" ht="16.500000" customHeight="1"/>
     <row r="80" spans="1:9" s="91" customFormat="1" ht="16.500000">
       <c r="A80" s="0"/>
       <c r="B80" s="0"/>
@@ -4152,36 +4139,4 @@
   </colBreaks>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
 </file>